--- a/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1435320896368353</v>
+        <v>0.1435320896368921</v>
       </c>
       <c r="D2">
         <v>0.4343785518207568</v>
       </c>
       <c r="E2">
-        <v>1.773176614448033</v>
+        <v>1.773176614448062</v>
       </c>
       <c r="F2">
-        <v>5.835290169522182</v>
+        <v>5.835290169522125</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.585832028937446</v>
+        <v>4.585832028937432</v>
       </c>
       <c r="I2">
-        <v>1.101293394291908</v>
+        <v>1.101293394291929</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.257815766370477</v>
+        <v>1.25781576637047</v>
       </c>
       <c r="L2">
-        <v>41.40817607141128</v>
+        <v>41.40817607141133</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1042778252577818</v>
+        <v>0.1042778252579524</v>
       </c>
       <c r="D3">
-        <v>0.3012967372941517</v>
+        <v>0.301296737294237</v>
       </c>
       <c r="E3">
-        <v>1.404697240661264</v>
+        <v>1.404697240661278</v>
       </c>
       <c r="F3">
-        <v>3.822388943895021</v>
+        <v>3.822388943895305</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.00509089820541</v>
+        <v>3.005090898205594</v>
       </c>
       <c r="I3">
         <v>0.8356672205231774</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9802773970147598</v>
+        <v>0.980277397014774</v>
       </c>
       <c r="L3">
-        <v>32.91458817523232</v>
+        <v>32.91458817523261</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08691962236552087</v>
+        <v>0.08691962236528639</v>
       </c>
       <c r="D4">
-        <v>0.2450538544481304</v>
+        <v>0.2450538544480168</v>
       </c>
       <c r="E4">
-        <v>1.224912463912389</v>
+        <v>1.224912463912375</v>
       </c>
       <c r="F4">
-        <v>3.017055980124766</v>
+        <v>3.017055980124823</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.37209174472838</v>
+        <v>2.372091744728436</v>
       </c>
       <c r="I4">
-        <v>0.7146376031804422</v>
+        <v>0.7146376031804493</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8486411463502819</v>
+        <v>0.8486411463503032</v>
       </c>
       <c r="L4">
-        <v>28.74036015375606</v>
+        <v>28.74036015375617</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08072230290648719</v>
+        <v>0.08072230290628113</v>
       </c>
       <c r="D5">
         <v>0.2254215963364317</v>
       </c>
       <c r="E5">
-        <v>1.157639640391054</v>
+        <v>1.157639640391025</v>
       </c>
       <c r="F5">
-        <v>2.7445508362689</v>
+        <v>2.744550836268928</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7999551147358588</v>
+        <v>0.7999551147358659</v>
       </c>
       <c r="L5">
-        <v>27.17447750588173</v>
+        <v>27.17447750588184</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07973395777366221</v>
+        <v>0.0797339577732572</v>
       </c>
       <c r="D6">
-        <v>0.2223140596854876</v>
+        <v>0.2223140596853881</v>
       </c>
       <c r="E6">
         <v>1.146745772523218</v>
       </c>
       <c r="F6">
-        <v>2.70188739926661</v>
+        <v>2.701887399266681</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.12421110285969</v>
+        <v>2.124211102859746</v>
       </c>
       <c r="I6">
-        <v>0.6635910055848342</v>
+        <v>0.66359100558482</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7920990931942242</v>
+        <v>0.79209909319421</v>
       </c>
       <c r="L6">
-        <v>26.92072156334541</v>
+        <v>26.92072156334552</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08683309044652532</v>
+        <v>0.08683309044674559</v>
       </c>
       <c r="D7">
         <v>0.2447780291527266</v>
       </c>
       <c r="E7">
-        <v>1.223985089770295</v>
+        <v>1.223985089770366</v>
       </c>
       <c r="F7">
-        <v>3.013193366615269</v>
+        <v>3.013193366615411</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.369054421156108</v>
+        <v>2.369054421156193</v>
       </c>
       <c r="I7">
-        <v>0.7140265502487821</v>
+        <v>0.7140265502487964</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8479679487214398</v>
+        <v>0.8479679487214469</v>
       </c>
       <c r="L7">
-        <v>28.71878768063192</v>
+        <v>28.7187876806322</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D8">
         <v>0.3799629045895898</v>
@@ -652,25 +652,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F8">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I8">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L8">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D9">
         <v>0.3799629045895898</v>
@@ -690,25 +690,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F9">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I9">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L9">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D10">
         <v>0.3799629045895898</v>
@@ -728,25 +728,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F10">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I10">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L10">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D11">
         <v>0.3799629045895898</v>
@@ -766,25 +766,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F11">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I11">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L11">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D12">
         <v>0.3799629045895898</v>
@@ -804,25 +804,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F12">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I12">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L12">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D13">
         <v>0.3799629045895898</v>
@@ -842,25 +842,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F13">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I13">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L13">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D14">
         <v>0.3799629045895898</v>
@@ -880,25 +880,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F14">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I14">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L14">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D15">
         <v>0.3799629045895898</v>
@@ -918,25 +918,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F15">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I15">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L15">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D16">
         <v>0.3799629045895898</v>
@@ -956,25 +956,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F16">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I16">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L16">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D17">
         <v>0.3799629045895898</v>
@@ -994,25 +994,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F17">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I17">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L17">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D18">
         <v>0.3799629045895898</v>
@@ -1032,25 +1032,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F18">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I18">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L18">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D19">
         <v>0.3799629045895898</v>
@@ -1070,25 +1070,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F19">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I19">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L19">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D20">
         <v>0.3799629045895898</v>
@@ -1108,25 +1108,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F20">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I20">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L20">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D21">
         <v>0.3799629045895898</v>
@@ -1146,25 +1146,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F21">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I21">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L21">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D22">
         <v>0.3799629045895898</v>
@@ -1184,25 +1184,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F22">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I22">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L22">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D23">
         <v>0.3799629045895898</v>
@@ -1222,25 +1222,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F23">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I23">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L23">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D24">
         <v>0.3799629045895898</v>
@@ -1260,25 +1260,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F24">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I24">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L24">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1277480996533029</v>
+        <v>0.1277480996531466</v>
       </c>
       <c r="D25">
         <v>0.3799629045895898</v>
@@ -1298,25 +1298,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F25">
-        <v>4.997073148583468</v>
+        <v>4.997073148583439</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.927747822031009</v>
+        <v>3.927747822030966</v>
       </c>
       <c r="I25">
-        <v>0.9955012279203501</v>
+        <v>0.995501227920343</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.149092689602206</v>
+        <v>1.149092689602178</v>
       </c>
       <c r="L25">
-        <v>38.13312330799067</v>
+        <v>38.13312330799073</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1435320896368921</v>
+        <v>0.1435320896368353</v>
       </c>
       <c r="D2">
         <v>0.4343785518207568</v>
       </c>
       <c r="E2">
-        <v>1.773176614448062</v>
+        <v>1.773176614448033</v>
       </c>
       <c r="F2">
-        <v>5.835290169522125</v>
+        <v>5.835290169522182</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.585832028937432</v>
+        <v>4.585832028937446</v>
       </c>
       <c r="I2">
-        <v>1.101293394291929</v>
+        <v>1.101293394291908</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.25781576637047</v>
+        <v>1.257815766370477</v>
       </c>
       <c r="L2">
-        <v>41.40817607141133</v>
+        <v>41.40817607141128</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1042778252579524</v>
+        <v>0.1042778252577818</v>
       </c>
       <c r="D3">
-        <v>0.301296737294237</v>
+        <v>0.3012967372941517</v>
       </c>
       <c r="E3">
-        <v>1.404697240661278</v>
+        <v>1.404697240661264</v>
       </c>
       <c r="F3">
-        <v>3.822388943895305</v>
+        <v>3.822388943895021</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.005090898205594</v>
+        <v>3.00509089820541</v>
       </c>
       <c r="I3">
         <v>0.8356672205231774</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.980277397014774</v>
+        <v>0.9802773970147598</v>
       </c>
       <c r="L3">
-        <v>32.91458817523261</v>
+        <v>32.91458817523232</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08691962236528639</v>
+        <v>0.08691962236552087</v>
       </c>
       <c r="D4">
-        <v>0.2450538544480168</v>
+        <v>0.2450538544481304</v>
       </c>
       <c r="E4">
-        <v>1.224912463912375</v>
+        <v>1.224912463912389</v>
       </c>
       <c r="F4">
-        <v>3.017055980124823</v>
+        <v>3.017055980124766</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.372091744728436</v>
+        <v>2.37209174472838</v>
       </c>
       <c r="I4">
-        <v>0.7146376031804493</v>
+        <v>0.7146376031804422</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8486411463503032</v>
+        <v>0.8486411463502819</v>
       </c>
       <c r="L4">
-        <v>28.74036015375617</v>
+        <v>28.74036015375606</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08072230290628113</v>
+        <v>0.08072230290648719</v>
       </c>
       <c r="D5">
         <v>0.2254215963364317</v>
       </c>
       <c r="E5">
-        <v>1.157639640391025</v>
+        <v>1.157639640391054</v>
       </c>
       <c r="F5">
-        <v>2.744550836268928</v>
+        <v>2.7445508362689</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7999551147358659</v>
+        <v>0.7999551147358588</v>
       </c>
       <c r="L5">
-        <v>27.17447750588184</v>
+        <v>27.17447750588173</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0797339577732572</v>
+        <v>0.07973395777366221</v>
       </c>
       <c r="D6">
-        <v>0.2223140596853881</v>
+        <v>0.2223140596854876</v>
       </c>
       <c r="E6">
         <v>1.146745772523218</v>
       </c>
       <c r="F6">
-        <v>2.701887399266681</v>
+        <v>2.70188739926661</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.124211102859746</v>
+        <v>2.12421110285969</v>
       </c>
       <c r="I6">
-        <v>0.66359100558482</v>
+        <v>0.6635910055848342</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.79209909319421</v>
+        <v>0.7920990931942242</v>
       </c>
       <c r="L6">
-        <v>26.92072156334552</v>
+        <v>26.92072156334541</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08683309044674559</v>
+        <v>0.08683309044652532</v>
       </c>
       <c r="D7">
         <v>0.2447780291527266</v>
       </c>
       <c r="E7">
-        <v>1.223985089770366</v>
+        <v>1.223985089770295</v>
       </c>
       <c r="F7">
-        <v>3.013193366615411</v>
+        <v>3.013193366615269</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.369054421156193</v>
+        <v>2.369054421156108</v>
       </c>
       <c r="I7">
-        <v>0.7140265502487964</v>
+        <v>0.7140265502487821</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8479679487214469</v>
+        <v>0.8479679487214398</v>
       </c>
       <c r="L7">
-        <v>28.7187876806322</v>
+        <v>28.71878768063192</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D8">
         <v>0.3799629045895898</v>
@@ -652,25 +652,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F8">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I8">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L8">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D9">
         <v>0.3799629045895898</v>
@@ -690,25 +690,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F9">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I9">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L9">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D10">
         <v>0.3799629045895898</v>
@@ -728,25 +728,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F10">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I10">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L10">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D11">
         <v>0.3799629045895898</v>
@@ -766,25 +766,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F11">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I11">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L11">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D12">
         <v>0.3799629045895898</v>
@@ -804,25 +804,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F12">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I12">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L12">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D13">
         <v>0.3799629045895898</v>
@@ -842,25 +842,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F13">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I13">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L13">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D14">
         <v>0.3799629045895898</v>
@@ -880,25 +880,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F14">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I14">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L14">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D15">
         <v>0.3799629045895898</v>
@@ -918,25 +918,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F15">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I15">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L15">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D16">
         <v>0.3799629045895898</v>
@@ -956,25 +956,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F16">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I16">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L16">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D17">
         <v>0.3799629045895898</v>
@@ -994,25 +994,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F17">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I17">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L17">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D18">
         <v>0.3799629045895898</v>
@@ -1032,25 +1032,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F18">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I18">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L18">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D19">
         <v>0.3799629045895898</v>
@@ -1070,25 +1070,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F19">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I19">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L19">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D20">
         <v>0.3799629045895898</v>
@@ -1108,25 +1108,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F20">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I20">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L20">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D21">
         <v>0.3799629045895898</v>
@@ -1146,25 +1146,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F21">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I21">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L21">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D22">
         <v>0.3799629045895898</v>
@@ -1184,25 +1184,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F22">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I22">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L22">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D23">
         <v>0.3799629045895898</v>
@@ -1222,25 +1222,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F23">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I23">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L23">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D24">
         <v>0.3799629045895898</v>
@@ -1260,25 +1260,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F24">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I24">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L24">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1277480996531466</v>
+        <v>0.1277480996533029</v>
       </c>
       <c r="D25">
         <v>0.3799629045895898</v>
@@ -1298,25 +1298,25 @@
         <v>1.630591965430227</v>
       </c>
       <c r="F25">
-        <v>4.997073148583439</v>
+        <v>4.997073148583468</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.927747822030966</v>
+        <v>3.927747822031009</v>
       </c>
       <c r="I25">
-        <v>0.995501227920343</v>
+        <v>0.9955012279203501</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.149092689602178</v>
+        <v>1.149092689602206</v>
       </c>
       <c r="L25">
-        <v>38.13312330799073</v>
+        <v>38.13312330799067</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1435320896368353</v>
+        <v>0.137732116728472</v>
       </c>
       <c r="D2">
-        <v>0.4343785518207568</v>
+        <v>0.415753210077213</v>
       </c>
       <c r="E2">
-        <v>1.773176614448033</v>
+        <v>1.760784388862476</v>
       </c>
       <c r="F2">
-        <v>5.835290169522182</v>
+        <v>5.607123057548449</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005537697896297717</v>
       </c>
       <c r="H2">
-        <v>4.585832028937446</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.101293394291908</v>
+        <v>4.405427302777298</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.088108860832506</v>
       </c>
       <c r="K2">
-        <v>1.257815766370477</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>41.40817607141128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.246262779949312</v>
+      </c>
+      <c r="M2">
+        <v>41.02306288934756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1042778252577818</v>
+        <v>0.1004165740648659</v>
       </c>
       <c r="D3">
-        <v>0.3012967372941517</v>
+        <v>0.2894175419997822</v>
       </c>
       <c r="E3">
-        <v>1.404697240661264</v>
+        <v>1.398504041606927</v>
       </c>
       <c r="F3">
-        <v>3.822388943895021</v>
+        <v>3.69230845428163</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006096704579064728</v>
       </c>
       <c r="H3">
-        <v>3.00509089820541</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8356672205231774</v>
+        <v>2.90186129279644</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8288148836896596</v>
       </c>
       <c r="K3">
-        <v>0.9802773970147598</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>32.91458817523232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.9742807122629529</v>
+      </c>
+      <c r="M3">
+        <v>32.69876464757118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08691962236552087</v>
+        <v>0.08380886682424205</v>
       </c>
       <c r="D4">
-        <v>0.2450538544481304</v>
+        <v>0.2356890605831694</v>
       </c>
       <c r="E4">
-        <v>1.224912463912389</v>
+        <v>1.220337257573718</v>
       </c>
       <c r="F4">
-        <v>3.017055980124766</v>
+        <v>2.921306568742466</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006379411155568923</v>
       </c>
       <c r="H4">
-        <v>2.37209174472838</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7146376031804422</v>
+        <v>2.29590782832615</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7095222981713931</v>
       </c>
       <c r="K4">
-        <v>0.8486411463502819</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>28.74036015375606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.8441478097419619</v>
+      </c>
+      <c r="M4">
+        <v>28.57616592283847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08072230290648719</v>
+        <v>0.07787485284436713</v>
       </c>
       <c r="D5">
-        <v>0.2254215963364317</v>
+        <v>0.2169262173262609</v>
       </c>
       <c r="E5">
-        <v>1.157639640391054</v>
+        <v>1.153534814104205</v>
       </c>
       <c r="F5">
-        <v>2.7445508362689</v>
+        <v>2.660372592091434</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006487099517648447</v>
       </c>
       <c r="H5">
-        <v>2.157772470646151</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6706502011198339</v>
+        <v>2.090709016240311</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6660558881964107</v>
       </c>
       <c r="K5">
-        <v>0.7999551147358588</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>27.17447750588173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.7959089016404306</v>
+      </c>
+      <c r="M5">
+        <v>27.0266187562309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07973395777366221</v>
+        <v>0.07692844877244198</v>
       </c>
       <c r="D6">
-        <v>0.2223140596854876</v>
+        <v>0.2139565741178728</v>
       </c>
       <c r="E6">
-        <v>1.146745772523218</v>
+        <v>1.142711437309202</v>
       </c>
       <c r="F6">
-        <v>2.70188739926661</v>
+        <v>2.619530331500201</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006504644718756893</v>
       </c>
       <c r="H6">
-        <v>2.12421110285969</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6635910055848342</v>
+        <v>2.058583341692042</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6590756606866748</v>
       </c>
       <c r="K6">
-        <v>0.7920990931942242</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>26.92072156334541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.7881204458591782</v>
+      </c>
+      <c r="M6">
+        <v>26.77538278560837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08683309044652532</v>
+        <v>0.08372601888791564</v>
       </c>
       <c r="D7">
-        <v>0.2447780291527266</v>
+        <v>0.2354254442741421</v>
       </c>
       <c r="E7">
-        <v>1.223985089770295</v>
+        <v>1.21941680135636</v>
       </c>
       <c r="F7">
-        <v>3.013193366615269</v>
+        <v>2.917607510103934</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006380888189894651</v>
       </c>
       <c r="H7">
-        <v>2.369054421156108</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7140265502487821</v>
+        <v>2.292999402168974</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7089188400527178</v>
       </c>
       <c r="K7">
-        <v>0.8479679487214398</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>28.71878768063192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.8434811456178792</v>
+      </c>
+      <c r="M7">
+        <v>28.55482821192544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D8">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E8">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F8">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H8">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K8">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M8">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D9">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E9">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F9">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H9">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K9">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M9">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D10">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E10">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F10">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H10">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K10">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M10">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D11">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E11">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F11">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H11">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K11">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M11">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D12">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E12">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F12">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H12">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K12">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M12">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D13">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E13">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F13">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H13">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K13">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M13">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D14">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E14">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F14">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H14">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K14">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M14">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D15">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E15">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F15">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H15">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K15">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M15">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D16">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E16">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F16">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H16">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K16">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M16">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D17">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E17">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F17">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H17">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K17">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M17">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D18">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E18">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F18">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H18">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K18">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M18">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D19">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E19">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F19">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H19">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K19">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M19">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D20">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E20">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F20">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H20">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K20">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M20">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D21">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E21">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F21">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H21">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K21">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M21">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D22">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E22">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F22">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H22">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K22">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M22">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D23">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E23">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F23">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H23">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K23">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M23">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D24">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E24">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F24">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H24">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K24">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>38.13312330799067</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M24">
+        <v>37.82786671425436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1277480996533029</v>
+        <v>0.1227907753796558</v>
       </c>
       <c r="D25">
-        <v>0.3799629045895898</v>
+        <v>0.3643128049663602</v>
       </c>
       <c r="E25">
-        <v>1.630591965430227</v>
+        <v>1.621252181477047</v>
       </c>
       <c r="F25">
-        <v>4.997073148583468</v>
+        <v>4.813161796606352</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005750841915520987</v>
       </c>
       <c r="H25">
-        <v>3.927747822031009</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9955012279203501</v>
+        <v>3.782148571952362</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.9853967886509665</v>
       </c>
       <c r="K25">
-        <v>1.149092689602206</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>38.13312330799067</v>
+        <v>1.140251825294285</v>
+      </c>
+      <c r="M25">
+        <v>37.82786671425436</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.137732116728472</v>
+        <v>0.4428321798213517</v>
       </c>
       <c r="D2">
-        <v>0.415753210077213</v>
+        <v>0.2251038342285909</v>
       </c>
       <c r="E2">
-        <v>1.760784388862476</v>
+        <v>0.1990425140471785</v>
       </c>
       <c r="F2">
-        <v>5.607123057548449</v>
+        <v>5.635851168254504</v>
       </c>
       <c r="G2">
-        <v>0.0005537697896297717</v>
+        <v>0.0007115002723803214</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.405427302777298</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.088108860832506</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.227059398932965</v>
       </c>
       <c r="L2">
-        <v>1.246262779949312</v>
+        <v>0.1843147777384289</v>
       </c>
       <c r="M2">
-        <v>41.02306288934756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.477525268957521</v>
+      </c>
+      <c r="O2">
+        <v>4.866716683615834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1004165740648659</v>
+        <v>0.3862760613932039</v>
       </c>
       <c r="D3">
-        <v>0.2894175419997822</v>
+        <v>0.1945539640430098</v>
       </c>
       <c r="E3">
-        <v>1.398504041606927</v>
+        <v>0.1729438394236595</v>
       </c>
       <c r="F3">
-        <v>3.69230845428163</v>
+        <v>4.819281554463345</v>
       </c>
       <c r="G3">
-        <v>0.0006096704579064728</v>
+        <v>0.0007326831957343298</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.90186129279644</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.8288148836896596</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.034995849834871</v>
       </c>
       <c r="L3">
-        <v>0.9742807122629529</v>
+        <v>0.1595814869301293</v>
       </c>
       <c r="M3">
-        <v>32.69876464757118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.380212138809753</v>
+      </c>
+      <c r="O3">
+        <v>4.163942965045294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08380886682424205</v>
+        <v>0.3537720612306998</v>
       </c>
       <c r="D4">
-        <v>0.2356890605831694</v>
+        <v>0.177763872053049</v>
       </c>
       <c r="E4">
-        <v>1.220337257573718</v>
+        <v>0.1579464478097741</v>
       </c>
       <c r="F4">
-        <v>2.921306568742466</v>
+        <v>4.353876775557893</v>
       </c>
       <c r="G4">
-        <v>0.0006379411155568923</v>
+        <v>0.0007456422415017148</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.29590782832615</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7095222981713931</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.329474407739013</v>
       </c>
       <c r="L4">
-        <v>0.8441478097419619</v>
+        <v>0.1453710137184743</v>
       </c>
       <c r="M4">
-        <v>28.57616592283847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.322129302713989</v>
+      </c>
+      <c r="O4">
+        <v>3.764239842848752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07787485284436713</v>
+        <v>0.3409827328540587</v>
       </c>
       <c r="D5">
-        <v>0.2169262173262609</v>
+        <v>0.1713250591654401</v>
       </c>
       <c r="E5">
-        <v>1.153534814104205</v>
+        <v>0.1520453380375386</v>
       </c>
       <c r="F5">
-        <v>2.660372592091434</v>
+        <v>4.171575300086374</v>
       </c>
       <c r="G5">
-        <v>0.0006487099517648447</v>
+        <v>0.0007509315907383596</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.090709016240311</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6660558881964107</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.047235775955699</v>
       </c>
       <c r="L5">
-        <v>0.7959089016404306</v>
+        <v>0.1397795702020019</v>
       </c>
       <c r="M5">
-        <v>27.0266187562309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.298841877016699</v>
+      </c>
+      <c r="O5">
+        <v>3.607861467131698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07692844877244198</v>
+        <v>0.3388840492895611</v>
       </c>
       <c r="D6">
-        <v>0.2139565741178728</v>
+        <v>0.1702779550837477</v>
       </c>
       <c r="E6">
-        <v>1.142711437309202</v>
+        <v>0.1510769652933242</v>
       </c>
       <c r="F6">
-        <v>2.619530331500201</v>
+        <v>4.141705736295023</v>
       </c>
       <c r="G6">
-        <v>0.0006504644718756893</v>
+        <v>0.0007518109074089788</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.058583341692042</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6590756606866748</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.000653680087481</v>
       </c>
       <c r="L6">
-        <v>0.7881204458591782</v>
+        <v>0.1388620017633926</v>
       </c>
       <c r="M6">
-        <v>26.77538278560837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.29499708318987</v>
+      </c>
+      <c r="O6">
+        <v>3.582250035126123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08372601888791564</v>
+        <v>0.3535978516985097</v>
       </c>
       <c r="D7">
-        <v>0.2354254442741421</v>
+        <v>0.177675509451177</v>
       </c>
       <c r="E7">
-        <v>1.21941680135636</v>
+        <v>0.1578660671069088</v>
       </c>
       <c r="F7">
-        <v>2.917607510103934</v>
+        <v>4.351390389354833</v>
       </c>
       <c r="G7">
-        <v>0.0006380888189894651</v>
+        <v>0.0007457135176021563</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.292999402168974</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.7089188400527178</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.325648315711305</v>
       </c>
       <c r="L7">
-        <v>0.8434811456178792</v>
+        <v>0.1452948515832801</v>
       </c>
       <c r="M7">
-        <v>28.55482821192544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.321813740086313</v>
+      </c>
+      <c r="O7">
+        <v>3.762106278423744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1227907753796558</v>
+        <v>0.4228012456197519</v>
       </c>
       <c r="D8">
-        <v>0.3643128049663602</v>
+        <v>0.2140997187014335</v>
       </c>
       <c r="E8">
-        <v>1.621252181477047</v>
+        <v>0.1897980515519748</v>
       </c>
       <c r="F8">
-        <v>4.813161796606352</v>
+        <v>5.345688233602232</v>
       </c>
       <c r="G8">
-        <v>0.0005750841915520987</v>
+        <v>0.0007188277220467503</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7.809624150926169</v>
       </c>
       <c r="L8">
-        <v>1.140251825294285</v>
+        <v>0.1755530601219064</v>
       </c>
       <c r="M8">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.443601028885411</v>
+      </c>
+      <c r="O8">
+        <v>4.616789312323704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1227907753796558</v>
+        <v>0.5824495520854782</v>
       </c>
       <c r="D9">
-        <v>0.3643128049663602</v>
+        <v>0.3068365180383381</v>
       </c>
       <c r="E9">
-        <v>1.621252181477047</v>
+        <v>0.2635256306693989</v>
       </c>
       <c r="F9">
-        <v>4.813161796606352</v>
+        <v>7.685031023397016</v>
       </c>
       <c r="G9">
-        <v>0.0005750841915520987</v>
+        <v>0.0006644784230481307</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.01406080911735</v>
       </c>
       <c r="L9">
-        <v>1.140251825294285</v>
+        <v>0.245475955303263</v>
       </c>
       <c r="M9">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.697738716952841</v>
+      </c>
+      <c r="O9">
+        <v>6.637175065286613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1227907753796558</v>
+        <v>0.7278379512877393</v>
       </c>
       <c r="D10">
-        <v>0.3643128049663602</v>
+        <v>0.4003073600984948</v>
       </c>
       <c r="E10">
-        <v>1.621252181477047</v>
+        <v>0.3308064380402058</v>
       </c>
       <c r="F10">
-        <v>4.813161796606352</v>
+        <v>9.863449454586998</v>
       </c>
       <c r="G10">
-        <v>0.0005750841915520987</v>
+        <v>0.0006208893470893289</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.72919729637115</v>
       </c>
       <c r="L10">
-        <v>1.140251825294285</v>
+        <v>0.3094114885783341</v>
       </c>
       <c r="M10">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.897546705234902</v>
+      </c>
+      <c r="O10">
+        <v>8.528133572587961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1227907753796558</v>
+        <v>0.8057698819366692</v>
       </c>
       <c r="D11">
-        <v>0.3643128049663602</v>
+        <v>0.4536277616330011</v>
       </c>
       <c r="E11">
-        <v>1.621252181477047</v>
+        <v>0.3669426873524202</v>
       </c>
       <c r="F11">
-        <v>4.813161796606352</v>
+        <v>11.04780468589212</v>
       </c>
       <c r="G11">
-        <v>0.0005750841915520987</v>
+        <v>0.0005991430666794829</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.11914902595979</v>
       </c>
       <c r="L11">
-        <v>1.140251825294285</v>
+        <v>0.3438160380931379</v>
       </c>
       <c r="M11">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.992522133222764</v>
+      </c>
+      <c r="O11">
+        <v>9.559537898739592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1227907753796558</v>
+        <v>0.8378892026832432</v>
       </c>
       <c r="D12">
-        <v>0.3643128049663602</v>
+        <v>0.4762335752558329</v>
       </c>
       <c r="E12">
-        <v>1.621252181477047</v>
+        <v>0.3818527976683583</v>
       </c>
       <c r="F12">
-        <v>4.813161796606352</v>
+        <v>11.53907794994927</v>
       </c>
       <c r="G12">
-        <v>0.0005750841915520987</v>
+        <v>0.0005904527445524967</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.67999880831678</v>
       </c>
       <c r="L12">
-        <v>1.140251825294285</v>
+        <v>0.3580266685401057</v>
       </c>
       <c r="M12">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2.029231327522467</v>
+      </c>
+      <c r="O12">
+        <v>9.988013735915814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1227907753796558</v>
+        <v>0.8308337166608908</v>
       </c>
       <c r="D13">
-        <v>0.3643128049663602</v>
+        <v>0.4712366667726258</v>
       </c>
       <c r="E13">
-        <v>1.621252181477047</v>
+        <v>0.3785766932617278</v>
       </c>
       <c r="F13">
-        <v>4.813161796606352</v>
+        <v>11.43100942060761</v>
       </c>
       <c r="G13">
-        <v>0.0005750841915520987</v>
+        <v>0.0005923489581477336</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.55737970086466</v>
       </c>
       <c r="L13">
-        <v>1.140251825294285</v>
+        <v>0.3549034680921466</v>
       </c>
       <c r="M13">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2.021288922434934</v>
+      </c>
+      <c r="O13">
+        <v>9.893727228556571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1227907753796558</v>
+        <v>0.8083524636838035</v>
       </c>
       <c r="D14">
-        <v>0.3643128049663602</v>
+        <v>0.4554319152683632</v>
       </c>
       <c r="E14">
-        <v>1.621252181477047</v>
+        <v>0.3681411732027584</v>
       </c>
       <c r="F14">
-        <v>4.813161796606352</v>
+        <v>11.08723951779243</v>
       </c>
       <c r="G14">
-        <v>0.0005750841915520987</v>
+        <v>0.0005984387392983186</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.16449665337649</v>
       </c>
       <c r="L14">
-        <v>1.140251825294285</v>
+        <v>0.3449579626792882</v>
       </c>
       <c r="M14">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.995526141178601</v>
+      </c>
+      <c r="O14">
+        <v>9.593918148925724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1227907753796558</v>
+        <v>0.794959795458368</v>
       </c>
       <c r="D15">
-        <v>0.3643128049663602</v>
+        <v>0.446101688741777</v>
       </c>
       <c r="E15">
-        <v>1.621252181477047</v>
+        <v>0.3619268009050387</v>
       </c>
       <c r="F15">
-        <v>4.813161796606352</v>
+        <v>10.88286716672027</v>
       </c>
       <c r="G15">
-        <v>0.0005750841915520987</v>
+        <v>0.0006021020833787542</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.92884912736218</v>
       </c>
       <c r="L15">
-        <v>1.140251825294285</v>
+        <v>0.339037497325279</v>
       </c>
       <c r="M15">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.979848494849989</v>
+      </c>
+      <c r="O15">
+        <v>9.415767624697878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1227907753796558</v>
+        <v>0.7230471274855859</v>
       </c>
       <c r="D16">
-        <v>0.3643128049663602</v>
+        <v>0.3971010929497965</v>
       </c>
       <c r="E16">
-        <v>1.621252181477047</v>
+        <v>0.328586751063412</v>
       </c>
       <c r="F16">
-        <v>4.813161796606352</v>
+        <v>9.791005903082834</v>
       </c>
       <c r="G16">
-        <v>0.0005750841915520987</v>
+        <v>0.0006222591501541253</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.64234687761228</v>
       </c>
       <c r="L16">
-        <v>1.140251825294285</v>
+        <v>0.3072997652687661</v>
       </c>
       <c r="M16">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.891433897234691</v>
+      </c>
+      <c r="O16">
+        <v>8.465118878347852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1227907753796558</v>
+        <v>0.6824351345724438</v>
       </c>
       <c r="D17">
-        <v>0.3643128049663602</v>
+        <v>0.3702603928403363</v>
       </c>
       <c r="E17">
-        <v>1.621252181477047</v>
+        <v>0.3097780941804302</v>
       </c>
       <c r="F17">
-        <v>4.813161796606352</v>
+        <v>9.178653263871325</v>
       </c>
       <c r="G17">
-        <v>0.0005750841915520987</v>
+        <v>0.0006340385306714238</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.89926018678747</v>
       </c>
       <c r="L17">
-        <v>1.140251825294285</v>
+        <v>0.2894129001711434</v>
       </c>
       <c r="M17">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.838332242026979</v>
+      </c>
+      <c r="O17">
+        <v>7.932814747062992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1227907753796558</v>
+        <v>0.6601111006662848</v>
       </c>
       <c r="D18">
-        <v>0.3643128049663602</v>
+        <v>0.3557676131621719</v>
       </c>
       <c r="E18">
-        <v>1.621252181477047</v>
+        <v>0.2994448053239509</v>
       </c>
       <c r="F18">
-        <v>4.813161796606352</v>
+        <v>8.843412128554945</v>
       </c>
       <c r="G18">
-        <v>0.0005750841915520987</v>
+        <v>0.0006406480615180452</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.48541990761933</v>
       </c>
       <c r="L18">
-        <v>1.140251825294285</v>
+        <v>0.2795911391400949</v>
       </c>
       <c r="M18">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.808161702690313</v>
+      </c>
+      <c r="O18">
+        <v>7.641666125747804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1227907753796558</v>
+        <v>0.6527111309779627</v>
       </c>
       <c r="D19">
-        <v>0.3643128049663602</v>
+        <v>0.3510050025233937</v>
       </c>
       <c r="E19">
-        <v>1.621252181477047</v>
+        <v>0.2960203756844777</v>
       </c>
       <c r="F19">
-        <v>4.813161796606352</v>
+        <v>8.732504384896941</v>
       </c>
       <c r="G19">
-        <v>0.0005750841915520987</v>
+        <v>0.0006428612628166072</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.34737281200566</v>
       </c>
       <c r="L19">
-        <v>1.140251825294285</v>
+        <v>0.2763369958080091</v>
       </c>
       <c r="M19">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.798006611891054</v>
+      </c>
+      <c r="O19">
+        <v>7.545388288149098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1227907753796558</v>
+        <v>0.6866464325628669</v>
       </c>
       <c r="D20">
-        <v>0.3643128049663602</v>
+        <v>0.3730152911858227</v>
       </c>
       <c r="E20">
-        <v>1.621252181477047</v>
+        <v>0.311727848636302</v>
       </c>
       <c r="F20">
-        <v>4.813161796606352</v>
+        <v>9.242004147999666</v>
       </c>
       <c r="G20">
-        <v>0.0005750841915520987</v>
+        <v>0.0006328026879019956</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.97689472459251</v>
       </c>
       <c r="L20">
-        <v>1.140251825294285</v>
+        <v>0.291266533859428</v>
       </c>
       <c r="M20">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.843945560199586</v>
+      </c>
+      <c r="O20">
+        <v>7.98785502150082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1227907753796558</v>
+        <v>0.8148743573618162</v>
       </c>
       <c r="D21">
-        <v>0.3643128049663602</v>
+        <v>0.4599985331563801</v>
       </c>
       <c r="E21">
-        <v>1.621252181477047</v>
+        <v>0.3711680442950325</v>
       </c>
       <c r="F21">
-        <v>4.813161796606352</v>
+        <v>11.18687784528356</v>
       </c>
       <c r="G21">
-        <v>0.0005750841915520987</v>
+        <v>0.000596664475840157</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.27881708729947</v>
       </c>
       <c r="L21">
-        <v>1.140251825294285</v>
+        <v>0.3478422430732309</v>
       </c>
       <c r="M21">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2.00307147595538</v>
+      </c>
+      <c r="O21">
+        <v>9.680796044867435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1227907753796558</v>
+        <v>0.9149485995994837</v>
       </c>
       <c r="D22">
-        <v>0.3643128049663602</v>
+        <v>0.5319447293051383</v>
       </c>
       <c r="E22">
-        <v>1.621252181477047</v>
+        <v>0.4176679038493774</v>
       </c>
       <c r="F22">
-        <v>4.813161796606352</v>
+        <v>12.72484566407195</v>
       </c>
       <c r="G22">
-        <v>0.0005750841915520987</v>
+        <v>0.0005701807102644417</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.99870329927438</v>
       </c>
       <c r="L22">
-        <v>1.140251825294285</v>
+        <v>0.3922005509105873</v>
       </c>
       <c r="M22">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2.111547429757735</v>
+      </c>
+      <c r="O22">
+        <v>11.02372415720905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1227907753796558</v>
+        <v>0.8595296370000938</v>
       </c>
       <c r="D23">
-        <v>0.3643128049663602</v>
+        <v>0.4916691209782869</v>
       </c>
       <c r="E23">
-        <v>1.621252181477047</v>
+        <v>0.3919043510293037</v>
       </c>
       <c r="F23">
-        <v>4.813161796606352</v>
+        <v>11.87107332274726</v>
       </c>
       <c r="G23">
-        <v>0.0005750841915520987</v>
+        <v>0.0005846800480824354</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.05409250055499</v>
       </c>
       <c r="L23">
-        <v>1.140251825294285</v>
+        <v>0.3676119272006133</v>
       </c>
       <c r="M23">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2.053166892114234</v>
+      </c>
+      <c r="O23">
+        <v>10.27778130712935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1227907753796558</v>
+        <v>0.6847393721223796</v>
       </c>
       <c r="D24">
-        <v>0.3643128049663602</v>
+        <v>0.3717669335610907</v>
       </c>
       <c r="E24">
-        <v>1.621252181477047</v>
+        <v>0.3108448967353468</v>
       </c>
       <c r="F24">
-        <v>4.813161796606352</v>
+        <v>9.213311810459402</v>
       </c>
       <c r="G24">
-        <v>0.0005750841915520987</v>
+        <v>0.0006333619075050913</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.94175528303734</v>
       </c>
       <c r="L24">
-        <v>1.140251825294285</v>
+        <v>0.2904270946594778</v>
       </c>
       <c r="M24">
-        <v>37.82786671425436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.841406673690329</v>
+      </c>
+      <c r="O24">
+        <v>7.962925809609402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1227907753796558</v>
+        <v>0.5356217796653198</v>
       </c>
       <c r="D25">
-        <v>0.3643128049663602</v>
+        <v>0.2784918466898745</v>
       </c>
       <c r="E25">
-        <v>1.621252181477047</v>
+        <v>0.2418865707188402</v>
       </c>
       <c r="F25">
-        <v>4.813161796606352</v>
+        <v>6.99275156561859</v>
       </c>
       <c r="G25">
-        <v>0.0005750841915520987</v>
+        <v>0.000679568285079471</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.782148571952362</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9853967886509665</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.10120486093095</v>
       </c>
       <c r="L25">
-        <v>1.140251825294285</v>
+        <v>0.2249411657985263</v>
       </c>
       <c r="M25">
-        <v>37.82786671425436</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.627015599934481</v>
+      </c>
+      <c r="O25">
+        <v>6.038069280240649</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4428321798213517</v>
+        <v>0.02706574821653618</v>
       </c>
       <c r="D2">
-        <v>0.2251038342285909</v>
+        <v>0.01074396790147603</v>
       </c>
       <c r="E2">
-        <v>0.1990425140471785</v>
+        <v>1.449895481098636</v>
       </c>
       <c r="F2">
-        <v>5.635851168254504</v>
+        <v>0.9017177177061058</v>
       </c>
       <c r="G2">
-        <v>0.0007115002723803214</v>
+        <v>0.8443518015971136</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4779423564103098</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6642191309946881</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.227059398932965</v>
+        <v>4.366498962719277</v>
       </c>
       <c r="L2">
-        <v>0.1843147777384289</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.477525268957521</v>
+        <v>0.5529462415154853</v>
       </c>
       <c r="O2">
-        <v>4.866716683615834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3862760613932039</v>
+        <v>0.02385029831644658</v>
       </c>
       <c r="D3">
-        <v>0.1945539640430098</v>
+        <v>0.01044385355515232</v>
       </c>
       <c r="E3">
-        <v>0.1729438394236595</v>
+        <v>1.240684933091671</v>
       </c>
       <c r="F3">
-        <v>4.819281554463345</v>
+        <v>0.7997210948214644</v>
       </c>
       <c r="G3">
-        <v>0.0007326831957343298</v>
+        <v>0.7433882978867672</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4395368333973693</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.589689496838254</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.034995849834871</v>
+        <v>3.782501389047184</v>
       </c>
       <c r="L3">
-        <v>0.1595814869301293</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.380212138809753</v>
+        <v>0.5790869174057534</v>
       </c>
       <c r="O3">
-        <v>4.163942965045294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3537720612306998</v>
+        <v>0.02187453280088647</v>
       </c>
       <c r="D4">
-        <v>0.177763872053049</v>
+        <v>0.01027311164482114</v>
       </c>
       <c r="E4">
-        <v>0.1579464478097741</v>
+        <v>1.115274591982242</v>
       </c>
       <c r="F4">
-        <v>4.353876775557893</v>
+        <v>0.739581691989514</v>
       </c>
       <c r="G4">
-        <v>0.0007456422415017148</v>
+        <v>0.6840132758627817</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4173829443854515</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5458227395101289</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.329474407739013</v>
+        <v>3.426536704251419</v>
       </c>
       <c r="L4">
-        <v>0.1453710137184743</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.322129302713989</v>
+        <v>0.596253424154682</v>
       </c>
       <c r="O4">
-        <v>3.764239842848752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3409827328540587</v>
+        <v>0.02106873589575997</v>
       </c>
       <c r="D5">
-        <v>0.1713250591654401</v>
+        <v>0.01020649774164895</v>
       </c>
       <c r="E5">
-        <v>0.1520453380375386</v>
+        <v>1.064813684545484</v>
       </c>
       <c r="F5">
-        <v>4.171575300086374</v>
+        <v>0.7156358051016127</v>
       </c>
       <c r="G5">
-        <v>0.0007509315907383596</v>
+        <v>0.6604055196018663</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4086818654409683</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5283744657012903</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.047235775955699</v>
+        <v>3.282007142955763</v>
       </c>
       <c r="L5">
-        <v>0.1397795702020019</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.298841877016699</v>
+        <v>0.6035173850347633</v>
       </c>
       <c r="O5">
-        <v>3.607861467131698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3388840492895611</v>
+        <v>0.0209348864111476</v>
       </c>
       <c r="D6">
-        <v>0.1702779550837477</v>
+        <v>0.01019560402156294</v>
       </c>
       <c r="E6">
-        <v>0.1510769652933242</v>
+        <v>1.056470326404906</v>
       </c>
       <c r="F6">
-        <v>4.141705736295023</v>
+        <v>0.7116917440997526</v>
       </c>
       <c r="G6">
-        <v>0.0007518109074089788</v>
+        <v>0.6565190474424298</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4072559079187812</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5255016820816536</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.000653680087481</v>
+        <v>3.258036535023564</v>
       </c>
       <c r="L6">
-        <v>0.1388620017633926</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.29499708318987</v>
+        <v>0.6047394379835325</v>
       </c>
       <c r="O6">
-        <v>3.582250035126123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3535978516985097</v>
+        <v>0.02186366855993072</v>
       </c>
       <c r="D7">
-        <v>0.177675509451177</v>
+        <v>0.01027220179445365</v>
       </c>
       <c r="E7">
-        <v>0.1578660671069088</v>
+        <v>1.114591598797503</v>
       </c>
       <c r="F7">
-        <v>4.351390389354833</v>
+        <v>0.7392565570432055</v>
       </c>
       <c r="G7">
-        <v>0.0007457135176021563</v>
+        <v>0.6836926007991906</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.417264315846765</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5455857553492152</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.325648315711305</v>
+        <v>3.424585547467984</v>
       </c>
       <c r="L7">
-        <v>0.1452948515832801</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.321813740086313</v>
+        <v>0.5963503168058253</v>
       </c>
       <c r="O7">
-        <v>3.762106278423744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4228012456197519</v>
+        <v>0.02595718236393196</v>
       </c>
       <c r="D8">
-        <v>0.2140997187014335</v>
+        <v>0.01063739653483609</v>
       </c>
       <c r="E8">
-        <v>0.1897980515519748</v>
+        <v>1.377050616715181</v>
       </c>
       <c r="F8">
-        <v>5.345688233602232</v>
+        <v>0.8659929345826072</v>
       </c>
       <c r="G8">
-        <v>0.0007188277220467503</v>
+        <v>0.8089524149396539</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4643837353875284</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6380974780483086</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.809624150926169</v>
+        <v>4.164513727760379</v>
       </c>
       <c r="L8">
-        <v>0.1755530601219064</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.443601028885411</v>
+        <v>0.5617202861107486</v>
       </c>
       <c r="O8">
-        <v>4.616789312323704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5824495520854782</v>
+        <v>0.03398784760915419</v>
       </c>
       <c r="D9">
-        <v>0.3068365180383381</v>
+        <v>0.0114845012914877</v>
       </c>
       <c r="E9">
-        <v>0.2635256306693989</v>
+        <v>1.922115789778786</v>
       </c>
       <c r="F9">
-        <v>7.685031023397016</v>
+        <v>1.13744734997492</v>
       </c>
       <c r="G9">
-        <v>0.0006644784230481307</v>
+        <v>1.078849901399082</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5697121682802901</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.8369764080811422</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.01406080911735</v>
+        <v>5.642707319628585</v>
       </c>
       <c r="L9">
-        <v>0.245475955303263</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.697738716952841</v>
+        <v>0.5032674492666374</v>
       </c>
       <c r="O9">
-        <v>6.637175065286613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7278379512877393</v>
+        <v>0.03991401137091088</v>
       </c>
       <c r="D10">
-        <v>0.4003073600984948</v>
+        <v>0.01222681864867425</v>
       </c>
       <c r="E10">
-        <v>0.3308064380402058</v>
+        <v>2.351155171872406</v>
       </c>
       <c r="F10">
-        <v>9.863449454586998</v>
+        <v>1.355847232617919</v>
       </c>
       <c r="G10">
-        <v>0.0006208893470893289</v>
+        <v>1.297410616716917</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6574849021102409</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.997537181366269</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.72919729637115</v>
+        <v>6.755544555008953</v>
       </c>
       <c r="L10">
-        <v>0.3094114885783341</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.897546705234902</v>
+        <v>0.4670148542015369</v>
       </c>
       <c r="O10">
-        <v>8.528133572587961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.8057698819366692</v>
+        <v>0.0426218836132719</v>
       </c>
       <c r="D11">
-        <v>0.4536277616330011</v>
+        <v>0.01260206454562862</v>
       </c>
       <c r="E11">
-        <v>0.3669426873524202</v>
+        <v>2.555269380557718</v>
       </c>
       <c r="F11">
-        <v>11.04780468589212</v>
+        <v>1.460608768405507</v>
       </c>
       <c r="G11">
-        <v>0.0005991430666794829</v>
+        <v>1.402659075154389</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7003199829195239</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.074699031578376</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.11914902595979</v>
+        <v>7.270285371502382</v>
       </c>
       <c r="L11">
-        <v>0.3438160380931379</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.992522133222764</v>
+        <v>0.4522124895028128</v>
       </c>
       <c r="O11">
-        <v>9.559537898739592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8378892026832432</v>
+        <v>0.04364960682461572</v>
       </c>
       <c r="D12">
-        <v>0.4762335752558329</v>
+        <v>0.01275077039848682</v>
       </c>
       <c r="E12">
-        <v>0.3818527976683583</v>
+        <v>2.634123390031874</v>
       </c>
       <c r="F12">
-        <v>11.53907794994927</v>
+        <v>1.501181865804327</v>
       </c>
       <c r="G12">
-        <v>0.0005904527445524967</v>
+        <v>1.443489105434963</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7170215205408681</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.104606054942622</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.67999880831678</v>
+        <v>7.46668441853592</v>
       </c>
       <c r="L12">
-        <v>0.3580266685401057</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.029231327522467</v>
+        <v>0.4468728547883103</v>
       </c>
       <c r="O12">
-        <v>9.988013735915814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.8308337166608908</v>
+        <v>0.0434281553610063</v>
       </c>
       <c r="D13">
-        <v>0.4712366667726258</v>
+        <v>0.0127184281603725</v>
       </c>
       <c r="E13">
-        <v>0.3785766932617278</v>
+        <v>2.617066478300416</v>
       </c>
       <c r="F13">
-        <v>11.43100942060761</v>
+        <v>1.492401436583648</v>
       </c>
       <c r="G13">
-        <v>0.0005923489581477336</v>
+        <v>1.434649884053158</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7134020657925646</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.098132814464108</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.55737970086466</v>
+        <v>7.424316192604294</v>
       </c>
       <c r="L13">
-        <v>0.3549034680921466</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.021288922434934</v>
+        <v>0.4480106301742097</v>
       </c>
       <c r="O13">
-        <v>9.893727228556571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.8083524636838035</v>
+        <v>0.04270638509674995</v>
       </c>
       <c r="D14">
-        <v>0.4554319152683632</v>
+        <v>0.01261415843669766</v>
       </c>
       <c r="E14">
-        <v>0.3681411732027584</v>
+        <v>2.561723730573604</v>
       </c>
       <c r="F14">
-        <v>11.08723951779243</v>
+        <v>1.463927888094929</v>
       </c>
       <c r="G14">
-        <v>0.0005984387392983186</v>
+        <v>1.405997796659534</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7016840008683403</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.077145131962752</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.16449665337649</v>
+        <v>7.286412031626071</v>
       </c>
       <c r="L14">
-        <v>0.3449579626792882</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.995526141178601</v>
+        <v>0.4517677288578241</v>
       </c>
       <c r="O14">
-        <v>9.593918148925724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.794959795458368</v>
+        <v>0.04226459949486383</v>
       </c>
       <c r="D15">
-        <v>0.446101688741777</v>
+        <v>0.01255119079732125</v>
       </c>
       <c r="E15">
-        <v>0.3619268009050387</v>
+        <v>2.528036871829855</v>
       </c>
       <c r="F15">
-        <v>10.88286716672027</v>
+        <v>1.446608484103336</v>
       </c>
       <c r="G15">
-        <v>0.0006021020833787542</v>
+        <v>1.388578903132014</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6945709786718908</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.064382139926124</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.92884912736218</v>
+        <v>7.202142391407733</v>
       </c>
       <c r="L15">
-        <v>0.339037497325279</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.979848494849989</v>
+        <v>0.4541043868557111</v>
       </c>
       <c r="O15">
-        <v>9.415767624697878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7230471274855859</v>
+        <v>0.03973733551284653</v>
       </c>
       <c r="D16">
-        <v>0.3971010929497965</v>
+        <v>0.01220314909810227</v>
       </c>
       <c r="E16">
-        <v>0.328586751063412</v>
+        <v>2.338018177067397</v>
       </c>
       <c r="F16">
-        <v>9.791005903082834</v>
+        <v>1.349119926293753</v>
       </c>
       <c r="G16">
-        <v>0.0006222591501541253</v>
+        <v>1.290660883618898</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6547491981050939</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.9925852284514178</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.64234687761228</v>
+        <v>6.722097164009369</v>
       </c>
       <c r="L16">
-        <v>0.3072997652687661</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.891433897234691</v>
+        <v>0.4680181001683081</v>
       </c>
       <c r="O16">
-        <v>8.465118878347852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.6824351345724438</v>
+        <v>0.03819041138060442</v>
       </c>
       <c r="D17">
-        <v>0.3702603928403363</v>
+        <v>0.01200004350826944</v>
       </c>
       <c r="E17">
-        <v>0.3097780941804302</v>
+        <v>2.223919190662627</v>
       </c>
       <c r="F17">
-        <v>9.178653263871325</v>
+        <v>1.290782788130159</v>
       </c>
       <c r="G17">
-        <v>0.0006340385306714238</v>
+        <v>1.232174912365565</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6311064023353481</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.9496593726788376</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.89926018678747</v>
+        <v>6.429953851241976</v>
       </c>
       <c r="L17">
-        <v>0.2894129001711434</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.838332242026979</v>
+        <v>0.4770017156344224</v>
       </c>
       <c r="O17">
-        <v>7.932814747062992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.6601111006662848</v>
+        <v>0.03730175482124309</v>
       </c>
       <c r="D18">
-        <v>0.3557676131621719</v>
+        <v>0.01188667309878966</v>
       </c>
       <c r="E18">
-        <v>0.2994448053239509</v>
+        <v>2.159115208290387</v>
       </c>
       <c r="F18">
-        <v>8.843412128554945</v>
+        <v>1.257729709375923</v>
       </c>
       <c r="G18">
-        <v>0.0006406480615180452</v>
+        <v>1.199074281827052</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.617777067635501</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.9253511601270787</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.48541990761933</v>
+        <v>6.262704145331895</v>
       </c>
       <c r="L18">
-        <v>0.2795911391400949</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.808161702690313</v>
+        <v>0.4823263241952915</v>
       </c>
       <c r="O18">
-        <v>7.641666125747804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.6527111309779627</v>
+        <v>0.03700104230894397</v>
       </c>
       <c r="D19">
-        <v>0.3510050025233937</v>
+        <v>0.0118488474648224</v>
       </c>
       <c r="E19">
-        <v>0.2960203756844777</v>
+        <v>2.137307377211783</v>
       </c>
       <c r="F19">
-        <v>8.732504384896941</v>
+        <v>1.246621018311643</v>
       </c>
       <c r="G19">
-        <v>0.0006428612628166072</v>
+        <v>1.187955661384819</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6133084721066666</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.9171836750242335</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.34737281200566</v>
+        <v>6.206203620873225</v>
       </c>
       <c r="L19">
-        <v>0.2763369958080091</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.798006611891054</v>
+        <v>0.4841555400879685</v>
       </c>
       <c r="O19">
-        <v>7.545388288149098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6866464325628669</v>
+        <v>0.03835496698480512</v>
       </c>
       <c r="D20">
-        <v>0.3730152911858227</v>
+        <v>0.01202129933449925</v>
       </c>
       <c r="E20">
-        <v>0.311727848636302</v>
+        <v>2.235978231612364</v>
       </c>
       <c r="F20">
-        <v>9.242004147999666</v>
+        <v>1.296940188272686</v>
       </c>
       <c r="G20">
-        <v>0.0006328026879019956</v>
+        <v>1.238344129689807</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6335949109599426</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.9541887628174095</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.97689472459251</v>
+        <v>6.460970193216497</v>
       </c>
       <c r="L20">
-        <v>0.291266533859428</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.843945560199586</v>
+        <v>0.4760289403546167</v>
       </c>
       <c r="O20">
-        <v>7.98785502150082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.8148743573618162</v>
+        <v>0.04291831877949193</v>
       </c>
       <c r="D21">
-        <v>0.4599985331563801</v>
+        <v>0.01264459479476088</v>
       </c>
       <c r="E21">
-        <v>0.3711680442950325</v>
+        <v>2.577934461150733</v>
       </c>
       <c r="F21">
-        <v>11.18687784528356</v>
+        <v>1.472265699683817</v>
       </c>
       <c r="G21">
-        <v>0.000596664475840157</v>
+        <v>1.414385966074718</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7051122868000732</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.083290243602562</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.27881708729947</v>
+        <v>7.326875506369163</v>
       </c>
       <c r="L21">
-        <v>0.3478422430732309</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.00307147595538</v>
+        <v>0.4506567711402454</v>
       </c>
       <c r="O21">
-        <v>9.680796044867435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.9149485995994837</v>
+        <v>0.04591453165298276</v>
       </c>
       <c r="D22">
-        <v>0.5319447293051383</v>
+        <v>0.01309122067730684</v>
       </c>
       <c r="E22">
-        <v>0.4176679038493774</v>
+        <v>2.810682017248268</v>
       </c>
       <c r="F22">
-        <v>12.72484566407195</v>
+        <v>1.592180250036463</v>
       </c>
       <c r="G22">
-        <v>0.0005701807102644417</v>
+        <v>1.535199194956789</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7546914380768897</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.171726776262801</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.99870329927438</v>
+        <v>7.901554588278543</v>
       </c>
       <c r="L22">
-        <v>0.3922005509105873</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.111547429757735</v>
+        <v>0.4356359903295015</v>
       </c>
       <c r="O22">
-        <v>11.02372415720905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.8595296370000938</v>
+        <v>0.04431392040960702</v>
       </c>
       <c r="D23">
-        <v>0.4916691209782869</v>
+        <v>0.01284878965001823</v>
       </c>
       <c r="E23">
-        <v>0.3919043510293037</v>
+        <v>2.685509206956397</v>
       </c>
       <c r="F23">
-        <v>11.87107332274726</v>
+        <v>1.527646307879266</v>
       </c>
       <c r="G23">
-        <v>0.0005846800480824354</v>
+        <v>1.470141333319503</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7279472615195743</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.124120056668644</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.05409250055499</v>
+        <v>7.593942009144314</v>
       </c>
       <c r="L23">
-        <v>0.3676119272006133</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.053166892114234</v>
+        <v>0.4435017030558939</v>
       </c>
       <c r="O23">
-        <v>10.27778130712935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6847393721223796</v>
+        <v>0.03828056928740153</v>
       </c>
       <c r="D24">
-        <v>0.3717669335610907</v>
+        <v>0.01201167908040546</v>
       </c>
       <c r="E24">
-        <v>0.3108448967353468</v>
+        <v>2.230523889106053</v>
       </c>
       <c r="F24">
-        <v>9.213311810459402</v>
+        <v>1.294154923923259</v>
       </c>
       <c r="G24">
-        <v>0.0006333619075050913</v>
+        <v>1.235553405343694</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6324690409630307</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.952139878708536</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.94175528303734</v>
+        <v>6.446945520459394</v>
       </c>
       <c r="L24">
-        <v>0.2904270946594778</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.841406673690329</v>
+        <v>0.4764682359829706</v>
       </c>
       <c r="O24">
-        <v>7.962925809609402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.5356217796653198</v>
+        <v>0.03181267853621961</v>
       </c>
       <c r="D25">
-        <v>0.2784918466898745</v>
+        <v>0.01123762217646274</v>
       </c>
       <c r="E25">
-        <v>0.2418865707188402</v>
+        <v>1.770457829491562</v>
       </c>
       <c r="F25">
-        <v>6.99275156561859</v>
+        <v>1.061077031913783</v>
       </c>
       <c r="G25">
-        <v>0.000679568285079471</v>
+        <v>1.002711016591036</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5395927891280792</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7809389909610829</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.10120486093095</v>
+        <v>5.23892216045374</v>
       </c>
       <c r="L25">
-        <v>0.2249411657985263</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.627015599934481</v>
+        <v>0.5179783999513745</v>
       </c>
       <c r="O25">
-        <v>6.038069280240649</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02706574821653618</v>
+        <v>0.009319804415525823</v>
       </c>
       <c r="D2">
-        <v>0.01074396790147603</v>
+        <v>0.0107095245145814</v>
       </c>
       <c r="E2">
-        <v>1.449895481098636</v>
+        <v>0.4201940620647378</v>
       </c>
       <c r="F2">
-        <v>0.9017177177061058</v>
+        <v>0.7392819203125214</v>
       </c>
       <c r="G2">
-        <v>0.8443518015971136</v>
+        <v>0.594133829690378</v>
       </c>
       <c r="H2">
-        <v>0.4779423564103098</v>
+        <v>0.6552490183734392</v>
       </c>
       <c r="I2">
-        <v>0.6642191309946881</v>
+        <v>0.5535716855459185</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.366498962719277</v>
+        <v>1.384413480739227</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5529462415154853</v>
+        <v>0.9350266736026214</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02385029831644658</v>
+        <v>0.008256651033008211</v>
       </c>
       <c r="D3">
-        <v>0.01044385355515232</v>
+        <v>0.01056964768328683</v>
       </c>
       <c r="E3">
-        <v>1.240684933091671</v>
+        <v>0.3663914740238141</v>
       </c>
       <c r="F3">
-        <v>0.7997210948214644</v>
+        <v>0.7217621395818838</v>
       </c>
       <c r="G3">
-        <v>0.7433882978867672</v>
+        <v>0.5760779366716093</v>
       </c>
       <c r="H3">
-        <v>0.4395368333973693</v>
+        <v>0.6527258562016556</v>
       </c>
       <c r="I3">
-        <v>0.589689496838254</v>
+        <v>0.5411123819884267</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.782501389047184</v>
+        <v>1.215709099681476</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5790869174057534</v>
+        <v>0.945285378288645</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02187453280088647</v>
+        <v>0.007600189705975424</v>
       </c>
       <c r="D4">
-        <v>0.01027311164482114</v>
+        <v>0.01048610810387629</v>
       </c>
       <c r="E4">
-        <v>1.115274591982242</v>
+        <v>0.3334698187378677</v>
       </c>
       <c r="F4">
-        <v>0.739581691989514</v>
+        <v>0.7116662727425194</v>
       </c>
       <c r="G4">
-        <v>0.6840132758627817</v>
+        <v>0.5655967188800588</v>
       </c>
       <c r="H4">
-        <v>0.4173829443854515</v>
+        <v>0.6516638329863156</v>
       </c>
       <c r="I4">
-        <v>0.5458227395101289</v>
+        <v>0.5339640539766606</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.426536704251419</v>
+        <v>1.112131761093451</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.596253424154682</v>
+        <v>0.952040308515663</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02106873589575997</v>
+        <v>0.007331766573557275</v>
       </c>
       <c r="D5">
-        <v>0.01020649774164895</v>
+        <v>0.01045265771041315</v>
       </c>
       <c r="E5">
-        <v>1.064813684545484</v>
+        <v>0.3200801055332647</v>
       </c>
       <c r="F5">
-        <v>0.7156358051016127</v>
+        <v>0.7077172925392716</v>
       </c>
       <c r="G5">
-        <v>0.6604055196018663</v>
+        <v>0.5614763219763432</v>
       </c>
       <c r="H5">
-        <v>0.4086818654409683</v>
+        <v>0.6513530439956128</v>
       </c>
       <c r="I5">
-        <v>0.5283744657012903</v>
+        <v>0.5311763373043945</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.282007142955763</v>
+        <v>1.069925126633052</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6035173850347633</v>
+        <v>0.9549076464699979</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0209348864111476</v>
+        <v>0.007287140635540368</v>
       </c>
       <c r="D6">
-        <v>0.01019560402156294</v>
+        <v>0.01044713918771123</v>
       </c>
       <c r="E6">
-        <v>1.056470326404906</v>
+        <v>0.3178582629860358</v>
       </c>
       <c r="F6">
-        <v>0.7116917440997526</v>
+        <v>0.7070715100739733</v>
       </c>
       <c r="G6">
-        <v>0.6565190474424298</v>
+        <v>0.5608011996756801</v>
       </c>
       <c r="H6">
-        <v>0.4072559079187812</v>
+        <v>0.6513087907862882</v>
       </c>
       <c r="I6">
-        <v>0.5255016820816536</v>
+        <v>0.5307209803511128</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.258036535023564</v>
+        <v>1.062916867175772</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6047394379835325</v>
+        <v>0.9553906896581807</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02186366855993072</v>
+        <v>0.007596573319382571</v>
       </c>
       <c r="D7">
-        <v>0.01027220179445365</v>
+        <v>0.0104856545772094</v>
       </c>
       <c r="E7">
-        <v>1.114591598797503</v>
+        <v>0.3332891376908833</v>
       </c>
       <c r="F7">
-        <v>0.7392565570432055</v>
+        <v>0.7116123481621628</v>
       </c>
       <c r="G7">
-        <v>0.6836926007991906</v>
+        <v>0.56554054108841</v>
       </c>
       <c r="H7">
-        <v>0.417264315846765</v>
+        <v>0.6516591483215848</v>
       </c>
       <c r="I7">
-        <v>0.5455857553492152</v>
+        <v>0.5339259517480883</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.424585547467984</v>
+        <v>1.111562539644524</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5963503168058253</v>
+        <v>0.9520785142676615</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02595718236393196</v>
+        <v>0.008954002165111774</v>
       </c>
       <c r="D8">
-        <v>0.01063739653483609</v>
+        <v>0.01066080973339467</v>
       </c>
       <c r="E8">
-        <v>1.377050616715181</v>
+        <v>0.401617953677416</v>
       </c>
       <c r="F8">
-        <v>0.8659929345826072</v>
+        <v>0.7331031447846073</v>
       </c>
       <c r="G8">
-        <v>0.8089524149396539</v>
+        <v>0.5877817074882046</v>
       </c>
       <c r="H8">
-        <v>0.4643837353875284</v>
+        <v>0.6542775958384226</v>
       </c>
       <c r="I8">
-        <v>0.6380974780483086</v>
+        <v>0.5491710459079044</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.164513727760379</v>
+        <v>1.326242525013356</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5617202861107486</v>
+        <v>0.9384692046118985</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03398784760915419</v>
+        <v>0.01158615017533293</v>
       </c>
       <c r="D9">
-        <v>0.0114845012914877</v>
+        <v>0.01102282015004974</v>
       </c>
       <c r="E9">
-        <v>1.922115789778786</v>
+        <v>0.5366236924834311</v>
       </c>
       <c r="F9">
-        <v>1.13744734997492</v>
+        <v>0.7805486345121579</v>
       </c>
       <c r="G9">
-        <v>1.078849901399082</v>
+        <v>0.6362643134588239</v>
       </c>
       <c r="H9">
-        <v>0.5697121682802901</v>
+        <v>0.6633029436360971</v>
       </c>
       <c r="I9">
-        <v>0.8369764080811422</v>
+        <v>0.583089868278833</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.642707319628585</v>
+        <v>1.747314216361474</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5032674492666374</v>
+        <v>0.9154014513281581</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03991401137091088</v>
+        <v>0.0135012866743125</v>
       </c>
       <c r="D10">
-        <v>0.01222681864867425</v>
+        <v>0.01130005651588561</v>
       </c>
       <c r="E10">
-        <v>2.351155171872406</v>
+        <v>0.6365971663988148</v>
       </c>
       <c r="F10">
-        <v>1.355847232617919</v>
+        <v>0.8187196815787843</v>
       </c>
       <c r="G10">
-        <v>1.297410616716917</v>
+        <v>0.6749479492888781</v>
       </c>
       <c r="H10">
-        <v>0.6574849021102409</v>
+        <v>0.6723420488678471</v>
       </c>
       <c r="I10">
-        <v>0.997537181366269</v>
+        <v>0.6105247273710575</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.755544555008953</v>
+        <v>2.056791805384421</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4670148542015369</v>
+        <v>0.9006631086203498</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0426218836132719</v>
+        <v>0.0143683687485705</v>
       </c>
       <c r="D11">
-        <v>0.01260206454562862</v>
+        <v>0.01142863265999594</v>
       </c>
       <c r="E11">
-        <v>2.555269380557718</v>
+        <v>0.682285124328402</v>
       </c>
       <c r="F11">
-        <v>1.460608768405507</v>
+        <v>0.8368218317667271</v>
       </c>
       <c r="G11">
-        <v>1.402659075154389</v>
+        <v>0.6932324467886701</v>
       </c>
       <c r="H11">
-        <v>0.7003199829195239</v>
+        <v>0.6769851478801172</v>
       </c>
       <c r="I11">
-        <v>1.074699031578376</v>
+        <v>0.6235652940312093</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.270285371502382</v>
+        <v>2.197622782219639</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4522124895028128</v>
+        <v>0.8944388189284425</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04364960682461572</v>
+        <v>0.01469610493027318</v>
       </c>
       <c r="D12">
-        <v>0.01275077039848682</v>
+        <v>0.01147767548582124</v>
       </c>
       <c r="E12">
-        <v>2.634123390031874</v>
+        <v>0.6996189600918115</v>
       </c>
       <c r="F12">
-        <v>1.501181865804327</v>
+        <v>0.8437841257211147</v>
       </c>
       <c r="G12">
-        <v>1.443489105434963</v>
+        <v>0.7002567573708518</v>
       </c>
       <c r="H12">
-        <v>0.7170215205408681</v>
+        <v>0.6788203803855595</v>
       </c>
       <c r="I12">
-        <v>1.104606054942622</v>
+        <v>0.6285850442849465</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.46668441853592</v>
+        <v>2.250959396141013</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4468728547883103</v>
+        <v>0.8921509947156494</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0434281553610063</v>
+        <v>0.01462554841755548</v>
       </c>
       <c r="D13">
-        <v>0.0127184281603725</v>
+        <v>0.01146709749087194</v>
       </c>
       <c r="E13">
-        <v>2.617066478300416</v>
+        <v>0.6958843068301519</v>
       </c>
       <c r="F13">
-        <v>1.492401436583648</v>
+        <v>0.8422798737697121</v>
       </c>
       <c r="G13">
-        <v>1.434649884053158</v>
+        <v>0.6987394574863117</v>
       </c>
       <c r="H13">
-        <v>0.7134020657925646</v>
+        <v>0.6784216961947891</v>
       </c>
       <c r="I13">
-        <v>1.098132814464108</v>
+        <v>0.6275003073684644</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.424316192604294</v>
+        <v>2.239472090144147</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4480106301742097</v>
+        <v>0.8926406398258351</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04270638509674995</v>
+        <v>0.0143953440973732</v>
       </c>
       <c r="D14">
-        <v>0.01261415843669766</v>
+        <v>0.01143266034903689</v>
       </c>
       <c r="E14">
-        <v>2.561723730573604</v>
+        <v>0.683710516687583</v>
       </c>
       <c r="F14">
-        <v>1.463927888094929</v>
+        <v>0.8373924639610948</v>
       </c>
       <c r="G14">
-        <v>1.405997796659534</v>
+        <v>0.6938083205252781</v>
       </c>
       <c r="H14">
-        <v>0.7016840008683403</v>
+        <v>0.67713458701013</v>
       </c>
       <c r="I14">
-        <v>1.077145131962752</v>
+        <v>0.6239766313535995</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.286412031626071</v>
+        <v>2.202010677152998</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4517677288578241</v>
+        <v>0.8942492110822684</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04226459949486383</v>
+        <v>0.01425425752439935</v>
       </c>
       <c r="D15">
-        <v>0.01255119079732125</v>
+        <v>0.0114116126966799</v>
       </c>
       <c r="E15">
-        <v>2.528036871829855</v>
+        <v>0.6762580698117233</v>
       </c>
       <c r="F15">
-        <v>1.446608484103336</v>
+        <v>0.8344128097046166</v>
       </c>
       <c r="G15">
-        <v>1.388578903132014</v>
+        <v>0.6908009742396928</v>
       </c>
       <c r="H15">
-        <v>0.6945709786718908</v>
+        <v>0.6763562403123728</v>
       </c>
       <c r="I15">
-        <v>1.064382139926124</v>
+        <v>0.62182893076222</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.202142391407733</v>
+        <v>2.179065391569679</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4541043868557111</v>
+        <v>0.8952435203004896</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03973733551284653</v>
+        <v>0.01344453647347876</v>
       </c>
       <c r="D16">
-        <v>0.01220314909810227</v>
+        <v>0.01129170325775775</v>
       </c>
       <c r="E16">
-        <v>2.338018177067397</v>
+        <v>0.633615794262866</v>
       </c>
       <c r="F16">
-        <v>1.349119926293753</v>
+        <v>0.8175516225931574</v>
       </c>
       <c r="G16">
-        <v>1.290660883618898</v>
+        <v>0.6737669741048364</v>
       </c>
       <c r="H16">
-        <v>0.6547491981050939</v>
+        <v>0.6720493518679973</v>
       </c>
       <c r="I16">
-        <v>0.9925852284514178</v>
+        <v>0.6096838557107844</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.722097164009369</v>
+        <v>2.047589142022503</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4680181001683081</v>
+        <v>0.9010795545090389</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03819041138060442</v>
+        <v>0.01294673127400614</v>
       </c>
       <c r="D17">
-        <v>0.01200004350826944</v>
+        <v>0.01121877263192061</v>
       </c>
       <c r="E17">
-        <v>2.223919190662627</v>
+        <v>0.6075116897200417</v>
       </c>
       <c r="F17">
-        <v>1.290782788130159</v>
+        <v>0.8073977482704606</v>
       </c>
       <c r="G17">
-        <v>1.232174912365565</v>
+        <v>0.6634942607068979</v>
       </c>
       <c r="H17">
-        <v>0.6311064023353481</v>
+        <v>0.6695436916320432</v>
       </c>
       <c r="I17">
-        <v>0.9496593726788376</v>
+        <v>0.6023774622148892</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.429953851241976</v>
+        <v>1.966945069340909</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4770017156344224</v>
+        <v>0.9047828590131246</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03730175482124309</v>
+        <v>0.01266001974543229</v>
       </c>
       <c r="D18">
-        <v>0.01188667309878966</v>
+        <v>0.01117705636314525</v>
       </c>
       <c r="E18">
-        <v>2.159115208290387</v>
+        <v>0.5925168586093008</v>
       </c>
       <c r="F18">
-        <v>1.257729709375923</v>
+        <v>0.8016268899659735</v>
       </c>
       <c r="G18">
-        <v>1.199074281827052</v>
+        <v>0.6576502482304818</v>
       </c>
       <c r="H18">
-        <v>0.617777067635501</v>
+        <v>0.6681524609199698</v>
       </c>
       <c r="I18">
-        <v>0.9253511601270787</v>
+        <v>0.5982276968319411</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.262704145331895</v>
+        <v>1.920565249892547</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4823263241952915</v>
+        <v>0.9069580980743694</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03700104230894397</v>
+        <v>0.01256287815019164</v>
       </c>
       <c r="D19">
-        <v>0.0118488474648224</v>
+        <v>0.01116297171814296</v>
       </c>
       <c r="E19">
-        <v>2.137307377211783</v>
+        <v>0.5874431451275655</v>
       </c>
       <c r="F19">
-        <v>1.246621018311643</v>
+        <v>0.7996848538675891</v>
       </c>
       <c r="G19">
-        <v>1.187955661384819</v>
+        <v>0.6556826104346953</v>
       </c>
       <c r="H19">
-        <v>0.6133084721066666</v>
+        <v>0.6676899760745982</v>
       </c>
       <c r="I19">
-        <v>0.9171836750242335</v>
+        <v>0.5968316749561211</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.206203620873225</v>
+        <v>1.904862614512979</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4841555400879685</v>
+        <v>0.9077023556802786</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03835496698480512</v>
+        <v>0.01299976367273814</v>
       </c>
       <c r="D20">
-        <v>0.01202129933449925</v>
+        <v>0.0112265122639883</v>
       </c>
       <c r="E20">
-        <v>2.235978231612364</v>
+        <v>0.6102884726323055</v>
       </c>
       <c r="F20">
-        <v>1.296940188272686</v>
+        <v>0.8084714555303378</v>
       </c>
       <c r="G20">
-        <v>1.238344129689807</v>
+        <v>0.6645811134886799</v>
       </c>
       <c r="H20">
-        <v>0.6335949109599426</v>
+        <v>0.6698052485173775</v>
       </c>
       <c r="I20">
-        <v>0.9541887628174095</v>
+        <v>0.6031497810207469</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.460970193216497</v>
+        <v>1.975529300537119</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4760289403546167</v>
+        <v>0.9043839574785792</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04291831877949193</v>
+        <v>0.01446297734066349</v>
       </c>
       <c r="D21">
-        <v>0.01264459479476088</v>
+        <v>0.01144276576541969</v>
       </c>
       <c r="E21">
-        <v>2.577934461150733</v>
+        <v>0.6872853423701741</v>
       </c>
       <c r="F21">
-        <v>1.472265699683817</v>
+        <v>0.8388250895056899</v>
       </c>
       <c r="G21">
-        <v>1.414385966074718</v>
+        <v>0.695253978504212</v>
       </c>
       <c r="H21">
-        <v>0.7051122868000732</v>
+        <v>0.6775105477402121</v>
       </c>
       <c r="I21">
-        <v>1.083290243602562</v>
+        <v>0.6250093986026002</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.326875506369163</v>
+        <v>2.21301381208923</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4506567711402454</v>
+        <v>0.8937748562091201</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04591453165298276</v>
+        <v>0.01541571518939833</v>
       </c>
       <c r="D22">
-        <v>0.01309122067730684</v>
+        <v>0.0115861627845355</v>
       </c>
       <c r="E22">
-        <v>2.810682017248268</v>
+        <v>0.7377996843248411</v>
       </c>
       <c r="F22">
-        <v>1.592180250036463</v>
+        <v>0.8592895742428652</v>
       </c>
       <c r="G22">
-        <v>1.535199194956789</v>
+        <v>0.7158862264073775</v>
       </c>
       <c r="H22">
-        <v>0.7546914380768897</v>
+        <v>0.682995461403209</v>
       </c>
       <c r="I22">
-        <v>1.171726776262801</v>
+        <v>0.6397718491230648</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.901554588278543</v>
+        <v>2.36826440787496</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4356359903295015</v>
+        <v>0.887244487008239</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04431392040960702</v>
+        <v>0.01490755176374137</v>
       </c>
       <c r="D23">
-        <v>0.01284878965001823</v>
+        <v>0.01150944016325184</v>
       </c>
       <c r="E23">
-        <v>2.685509206956397</v>
+        <v>0.710820729400524</v>
       </c>
       <c r="F23">
-        <v>1.527646307879266</v>
+        <v>0.8483095285648545</v>
       </c>
       <c r="G23">
-        <v>1.470141333319503</v>
+        <v>0.7048202909221288</v>
       </c>
       <c r="H23">
-        <v>0.7279472615195743</v>
+        <v>0.6800267674097427</v>
       </c>
       <c r="I23">
-        <v>1.124120056668644</v>
+        <v>0.6318489716215652</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>7.593942009144314</v>
+        <v>2.285400483692626</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4435017030558939</v>
+        <v>0.890692924786471</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03828056928740153</v>
+        <v>0.01297578933387911</v>
       </c>
       <c r="D24">
-        <v>0.01201167908040546</v>
+        <v>0.01122301251412949</v>
       </c>
       <c r="E24">
-        <v>2.230523889106053</v>
+        <v>0.6090330495418215</v>
       </c>
       <c r="F24">
-        <v>1.294154923923259</v>
+        <v>0.8079858246878899</v>
       </c>
       <c r="G24">
-        <v>1.235553405343694</v>
+        <v>0.6640895546295553</v>
       </c>
       <c r="H24">
-        <v>0.6324690409630307</v>
+        <v>0.6696868451048203</v>
       </c>
       <c r="I24">
-        <v>0.952139878708536</v>
+        <v>0.602800457596004</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.446945520459394</v>
+        <v>1.971648420922634</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4764682359829706</v>
+        <v>0.9045641570818788</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03181267853621961</v>
+        <v>0.01087732962413668</v>
       </c>
       <c r="D25">
-        <v>0.01123762217646274</v>
+        <v>0.01092290800962203</v>
       </c>
       <c r="E25">
-        <v>1.770457829491562</v>
+        <v>0.4999754519126185</v>
       </c>
       <c r="F25">
-        <v>1.061077031913783</v>
+        <v>0.7671374627383614</v>
       </c>
       <c r="G25">
-        <v>1.002711016591036</v>
+        <v>0.6226174862849803</v>
       </c>
       <c r="H25">
-        <v>0.5395927891280792</v>
+        <v>0.6604410990626377</v>
       </c>
       <c r="I25">
-        <v>0.7809389909610829</v>
+        <v>0.5734768340716272</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5.23892216045374</v>
+        <v>1.633387543859669</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5179783999513745</v>
+        <v>0.9212541022304634</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.009319804415525823</v>
+        <v>0.02706574821678487</v>
       </c>
       <c r="D2">
-        <v>0.0107095245145814</v>
+        <v>0.01074396790147603</v>
       </c>
       <c r="E2">
-        <v>0.4201940620647378</v>
+        <v>1.449895481098622</v>
       </c>
       <c r="F2">
-        <v>0.7392819203125214</v>
+        <v>0.9017177177061058</v>
       </c>
       <c r="G2">
-        <v>0.594133829690378</v>
+        <v>0.8443518015970994</v>
       </c>
       <c r="H2">
-        <v>0.6552490183734392</v>
+        <v>0.4779423564103098</v>
       </c>
       <c r="I2">
-        <v>0.5535716855459185</v>
+        <v>0.664219130994681</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.384413480739227</v>
+        <v>4.366498962719334</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9350266736026214</v>
+        <v>0.5529462415154924</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.008256651033008211</v>
+        <v>0.02385029831632579</v>
       </c>
       <c r="D3">
-        <v>0.01056964768328683</v>
+        <v>0.01044385355515232</v>
       </c>
       <c r="E3">
-        <v>0.3663914740238141</v>
+        <v>1.240684933091671</v>
       </c>
       <c r="F3">
-        <v>0.7217621395818838</v>
+        <v>0.7997210948214644</v>
       </c>
       <c r="G3">
-        <v>0.5760779366716093</v>
+        <v>0.7433882978867956</v>
       </c>
       <c r="H3">
-        <v>0.6527258562016556</v>
+        <v>0.4395368333973693</v>
       </c>
       <c r="I3">
-        <v>0.5411123819884267</v>
+        <v>0.589689496838254</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.215709099681476</v>
+        <v>3.782501389047184</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.945285378288645</v>
+        <v>0.5790869174058031</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.007600189705975424</v>
+        <v>0.02187453280112805</v>
       </c>
       <c r="D4">
-        <v>0.01048610810387629</v>
+        <v>0.01027311164476785</v>
       </c>
       <c r="E4">
-        <v>0.3334698187378677</v>
+        <v>1.115274591982256</v>
       </c>
       <c r="F4">
-        <v>0.7116662727425194</v>
+        <v>0.739581691989514</v>
       </c>
       <c r="G4">
-        <v>0.5655967188800588</v>
+        <v>0.6840132758627817</v>
       </c>
       <c r="H4">
-        <v>0.6516638329863156</v>
+        <v>0.4173829443854515</v>
       </c>
       <c r="I4">
-        <v>0.5339640539766606</v>
+        <v>0.5458227395101645</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.112131761093451</v>
+        <v>3.426536704251419</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.952040308515663</v>
+        <v>0.596253424154682</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007331766573557275</v>
+        <v>0.02106873589577418</v>
       </c>
       <c r="D5">
-        <v>0.01045265771041315</v>
+        <v>0.01020649774153704</v>
       </c>
       <c r="E5">
-        <v>0.3200801055332647</v>
+        <v>1.064813684545484</v>
       </c>
       <c r="F5">
-        <v>0.7077172925392716</v>
+        <v>0.7156358051016412</v>
       </c>
       <c r="G5">
-        <v>0.5614763219763432</v>
+        <v>0.6604055196018805</v>
       </c>
       <c r="H5">
-        <v>0.6513530439956128</v>
+        <v>0.4086818654409683</v>
       </c>
       <c r="I5">
-        <v>0.5311763373043945</v>
+        <v>0.5283744657012903</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.069925126633052</v>
+        <v>3.282007142955763</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9549076464699979</v>
+        <v>0.6035173850347633</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007287140635540368</v>
+        <v>0.02093488641150287</v>
       </c>
       <c r="D6">
-        <v>0.01044713918771123</v>
+        <v>0.01019560402156294</v>
       </c>
       <c r="E6">
-        <v>0.3178582629860358</v>
+        <v>1.056470326404906</v>
       </c>
       <c r="F6">
-        <v>0.7070715100739733</v>
+        <v>0.7116917440997526</v>
       </c>
       <c r="G6">
-        <v>0.5608011996756801</v>
+        <v>0.656519047442373</v>
       </c>
       <c r="H6">
-        <v>0.6513087907862882</v>
+        <v>0.407255907918767</v>
       </c>
       <c r="I6">
-        <v>0.5307209803511128</v>
+        <v>0.525501682081682</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.062916867175772</v>
+        <v>3.258036535023621</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9553906896581807</v>
+        <v>0.6047394379835325</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007596573319382571</v>
+        <v>0.02186366855969624</v>
       </c>
       <c r="D7">
-        <v>0.0104856545772094</v>
+        <v>0.01027220179445365</v>
       </c>
       <c r="E7">
-        <v>0.3332891376908833</v>
+        <v>1.114591598797546</v>
       </c>
       <c r="F7">
-        <v>0.7116123481621628</v>
+        <v>0.7392565570432055</v>
       </c>
       <c r="G7">
-        <v>0.56554054108841</v>
+        <v>0.6836926007991622</v>
       </c>
       <c r="H7">
-        <v>0.6516591483215848</v>
+        <v>0.4172643158468503</v>
       </c>
       <c r="I7">
-        <v>0.5339259517480883</v>
+        <v>0.5455857553492081</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.111562539644524</v>
+        <v>3.424585547468041</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9520785142676615</v>
+        <v>0.5963503168058253</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.008954002165111774</v>
+        <v>0.02595718236367617</v>
       </c>
       <c r="D8">
-        <v>0.01066080973339467</v>
+        <v>0.01063739653487872</v>
       </c>
       <c r="E8">
-        <v>0.401617953677416</v>
+        <v>1.377050616715181</v>
       </c>
       <c r="F8">
-        <v>0.7331031447846073</v>
+        <v>0.865992934582593</v>
       </c>
       <c r="G8">
-        <v>0.5877817074882046</v>
+        <v>0.8089524149396823</v>
       </c>
       <c r="H8">
-        <v>0.6542775958384226</v>
+        <v>0.4643837353875426</v>
       </c>
       <c r="I8">
-        <v>0.5491710459079044</v>
+        <v>0.6380974780483228</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.326242525013356</v>
+        <v>4.164513727760379</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9384692046118985</v>
+        <v>0.5617202861107486</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01158615017533293</v>
+        <v>0.03398784760914708</v>
       </c>
       <c r="D9">
-        <v>0.01102282015004974</v>
+        <v>0.01148450129137402</v>
       </c>
       <c r="E9">
-        <v>0.5366236924834311</v>
+        <v>1.922115789778786</v>
       </c>
       <c r="F9">
-        <v>0.7805486345121579</v>
+        <v>1.13744734997492</v>
       </c>
       <c r="G9">
-        <v>0.6362643134588239</v>
+        <v>1.078849901399138</v>
       </c>
       <c r="H9">
-        <v>0.6633029436360971</v>
+        <v>0.5697121682802901</v>
       </c>
       <c r="I9">
-        <v>0.583089868278833</v>
+        <v>0.8369764080811279</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.747314216361474</v>
+        <v>5.642707319628414</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9154014513281581</v>
+        <v>0.5032674492666303</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0135012866743125</v>
+        <v>0.03991401137075457</v>
       </c>
       <c r="D10">
-        <v>0.01130005651588561</v>
+        <v>0.01222681864864583</v>
       </c>
       <c r="E10">
-        <v>0.6365971663988148</v>
+        <v>2.351155171872421</v>
       </c>
       <c r="F10">
-        <v>0.8187196815787843</v>
+        <v>1.355847232617919</v>
       </c>
       <c r="G10">
-        <v>0.6749479492888781</v>
+        <v>1.297410616717002</v>
       </c>
       <c r="H10">
-        <v>0.6723420488678471</v>
+        <v>0.6574849021101272</v>
       </c>
       <c r="I10">
-        <v>0.6105247273710575</v>
+        <v>0.997537181366269</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.056791805384421</v>
+        <v>6.755544555008953</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9006631086203498</v>
+        <v>0.46701485420148</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0143683687485705</v>
+        <v>0.04262188361299479</v>
       </c>
       <c r="D11">
-        <v>0.01142863265999594</v>
+        <v>0.01260206454562507</v>
       </c>
       <c r="E11">
-        <v>0.682285124328402</v>
+        <v>2.555269380557718</v>
       </c>
       <c r="F11">
-        <v>0.8368218317667271</v>
+        <v>1.460608768405507</v>
       </c>
       <c r="G11">
-        <v>0.6932324467886701</v>
+        <v>1.402659075154389</v>
       </c>
       <c r="H11">
-        <v>0.6769851478801172</v>
+        <v>0.7003199829194102</v>
       </c>
       <c r="I11">
-        <v>0.6235652940312093</v>
+        <v>1.074699031578376</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.197622782219639</v>
+        <v>7.270285371502268</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8944388189284425</v>
+        <v>0.4522124895028057</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01469610493027318</v>
+        <v>0.04364960682455887</v>
       </c>
       <c r="D12">
-        <v>0.01147767548582124</v>
+        <v>0.01275077039848682</v>
       </c>
       <c r="E12">
-        <v>0.6996189600918115</v>
+        <v>2.634123390031931</v>
       </c>
       <c r="F12">
-        <v>0.8437841257211147</v>
+        <v>1.501181865804327</v>
       </c>
       <c r="G12">
-        <v>0.7002567573708518</v>
+        <v>1.443489105434907</v>
       </c>
       <c r="H12">
-        <v>0.6788203803855595</v>
+        <v>0.7170215205408681</v>
       </c>
       <c r="I12">
-        <v>0.6285850442849465</v>
+        <v>1.10460605494265</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.250959396141013</v>
+        <v>7.466684418535749</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8921509947156494</v>
+        <v>0.4468728547883174</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01462554841755548</v>
+        <v>0.04342815536117683</v>
       </c>
       <c r="D13">
-        <v>0.01146709749087194</v>
+        <v>0.01271842816036894</v>
       </c>
       <c r="E13">
-        <v>0.6958843068301519</v>
+        <v>2.617066478300373</v>
       </c>
       <c r="F13">
-        <v>0.8422798737697121</v>
+        <v>1.492401436583663</v>
       </c>
       <c r="G13">
-        <v>0.6987394574863117</v>
+        <v>1.434649884053158</v>
       </c>
       <c r="H13">
-        <v>0.6784216961947891</v>
+        <v>0.713402065792593</v>
       </c>
       <c r="I13">
-        <v>0.6275003073684644</v>
+        <v>1.098132814464108</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.239472090144147</v>
+        <v>7.424316192604294</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8926406398258351</v>
+        <v>0.4480106301742666</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0143953440973732</v>
+        <v>0.04270638509697733</v>
       </c>
       <c r="D14">
-        <v>0.01143266034903689</v>
+        <v>0.0126141584366124</v>
       </c>
       <c r="E14">
-        <v>0.683710516687583</v>
+        <v>2.561723730573604</v>
       </c>
       <c r="F14">
-        <v>0.8373924639610948</v>
+        <v>1.463927888094943</v>
       </c>
       <c r="G14">
-        <v>0.6938083205252781</v>
+        <v>1.405997796659562</v>
       </c>
       <c r="H14">
-        <v>0.67713458701013</v>
+        <v>0.7016840008681982</v>
       </c>
       <c r="I14">
-        <v>0.6239766313535995</v>
+        <v>1.077145131962766</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.202010677152998</v>
+        <v>7.286412031626242</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8942492110822684</v>
+        <v>0.4517677288578241</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01425425752439935</v>
+        <v>0.04226459949470041</v>
       </c>
       <c r="D15">
-        <v>0.0114116126966799</v>
+        <v>0.01255119079721112</v>
       </c>
       <c r="E15">
-        <v>0.6762580698117233</v>
+        <v>2.52803687182984</v>
       </c>
       <c r="F15">
-        <v>0.8344128097046166</v>
+        <v>1.446608484103365</v>
       </c>
       <c r="G15">
-        <v>0.6908009742396928</v>
+        <v>1.388578903132014</v>
       </c>
       <c r="H15">
-        <v>0.6763562403123728</v>
+        <v>0.6945709786718908</v>
       </c>
       <c r="I15">
-        <v>0.62182893076222</v>
+        <v>1.064382139926138</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.179065391569679</v>
+        <v>7.20214239140779</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8952435203004896</v>
+        <v>0.4541043868557111</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01344453647347876</v>
+        <v>0.03973733551284653</v>
       </c>
       <c r="D16">
-        <v>0.01129170325775775</v>
+        <v>0.01220314909817333</v>
       </c>
       <c r="E16">
-        <v>0.633615794262866</v>
+        <v>2.338018177067326</v>
       </c>
       <c r="F16">
-        <v>0.8175516225931574</v>
+        <v>1.349119926293767</v>
       </c>
       <c r="G16">
-        <v>0.6737669741048364</v>
+        <v>1.290660883618898</v>
       </c>
       <c r="H16">
-        <v>0.6720493518679973</v>
+        <v>0.6547491981051223</v>
       </c>
       <c r="I16">
-        <v>0.6096838557107844</v>
+        <v>0.9925852284514036</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.047589142022503</v>
+        <v>6.72209716400954</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9010795545090389</v>
+        <v>0.468018100168301</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01294673127400614</v>
+        <v>0.03819041138039125</v>
       </c>
       <c r="D17">
-        <v>0.01121877263192061</v>
+        <v>0.01200004350808115</v>
       </c>
       <c r="E17">
-        <v>0.6075116897200417</v>
+        <v>2.223919190662627</v>
       </c>
       <c r="F17">
-        <v>0.8073977482704606</v>
+        <v>1.290782788130159</v>
       </c>
       <c r="G17">
-        <v>0.6634942607068979</v>
+        <v>1.232174912365451</v>
       </c>
       <c r="H17">
-        <v>0.6695436916320432</v>
+        <v>0.6311064023354618</v>
       </c>
       <c r="I17">
-        <v>0.6023774622148892</v>
+        <v>0.9496593726788376</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.966945069340909</v>
+        <v>6.42995385124209</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9047828590131246</v>
+        <v>0.4770017156344153</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01266001974543229</v>
+        <v>0.0373017548212573</v>
       </c>
       <c r="D18">
-        <v>0.01117705636314525</v>
+        <v>0.01188667309859781</v>
       </c>
       <c r="E18">
-        <v>0.5925168586093008</v>
+        <v>2.159115208290416</v>
       </c>
       <c r="F18">
-        <v>0.8016268899659735</v>
+        <v>1.257729709375909</v>
       </c>
       <c r="G18">
-        <v>0.6576502482304818</v>
+        <v>1.19907428182708</v>
       </c>
       <c r="H18">
-        <v>0.6681524609199698</v>
+        <v>0.6177770676353873</v>
       </c>
       <c r="I18">
-        <v>0.5982276968319411</v>
+        <v>0.9253511601270503</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.920565249892547</v>
+        <v>6.262704145332066</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9069580980743694</v>
+        <v>0.4823263241952915</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01256287815019164</v>
+        <v>0.03700104230880186</v>
       </c>
       <c r="D19">
-        <v>0.01116297171814296</v>
+        <v>0.01184884746475134</v>
       </c>
       <c r="E19">
-        <v>0.5874431451275655</v>
+        <v>2.137307377211741</v>
       </c>
       <c r="F19">
-        <v>0.7996848538675891</v>
+        <v>1.246621018311671</v>
       </c>
       <c r="G19">
-        <v>0.6556826104346953</v>
+        <v>1.187955661384848</v>
       </c>
       <c r="H19">
-        <v>0.6676899760745982</v>
+        <v>0.6133084721067803</v>
       </c>
       <c r="I19">
-        <v>0.5968316749561211</v>
+        <v>0.9171836750242335</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.904862614512979</v>
+        <v>6.206203620873168</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9077023556802786</v>
+        <v>0.4841555400879756</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01299976367273814</v>
+        <v>0.03835496698506802</v>
       </c>
       <c r="D20">
-        <v>0.0112265122639883</v>
+        <v>0.01202129933439267</v>
       </c>
       <c r="E20">
-        <v>0.6102884726323055</v>
+        <v>2.235978231612364</v>
       </c>
       <c r="F20">
-        <v>0.8084714555303378</v>
+        <v>1.296940188272686</v>
       </c>
       <c r="G20">
-        <v>0.6645811134886799</v>
+        <v>1.238344129689864</v>
       </c>
       <c r="H20">
-        <v>0.6698052485173775</v>
+        <v>0.6335949109600563</v>
       </c>
       <c r="I20">
-        <v>0.6031497810207469</v>
+        <v>0.9541887628173811</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.975529300537119</v>
+        <v>6.46097019321661</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9043839574785792</v>
+        <v>0.4760289403546167</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01446297734066349</v>
+        <v>0.04291831877937824</v>
       </c>
       <c r="D21">
-        <v>0.01144276576541969</v>
+        <v>0.01264459479478575</v>
       </c>
       <c r="E21">
-        <v>0.6872853423701741</v>
+        <v>2.577934461150775</v>
       </c>
       <c r="F21">
-        <v>0.8388250895056899</v>
+        <v>1.472265699683817</v>
       </c>
       <c r="G21">
-        <v>0.695253978504212</v>
+        <v>1.414385966074718</v>
       </c>
       <c r="H21">
-        <v>0.6775105477402121</v>
+        <v>0.7051122868001016</v>
       </c>
       <c r="I21">
-        <v>0.6250093986026002</v>
+        <v>1.083290243602562</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.21301381208923</v>
+        <v>7.326875506369163</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8937748562091201</v>
+        <v>0.4506567711402383</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01541571518939833</v>
+        <v>0.04591453165287618</v>
       </c>
       <c r="D22">
-        <v>0.0115861627845355</v>
+        <v>0.01309122067710788</v>
       </c>
       <c r="E22">
-        <v>0.7377996843248411</v>
+        <v>2.810682017248311</v>
       </c>
       <c r="F22">
-        <v>0.8592895742428652</v>
+        <v>1.592180250036463</v>
       </c>
       <c r="G22">
-        <v>0.7158862264073775</v>
+        <v>1.535199194956817</v>
       </c>
       <c r="H22">
-        <v>0.682995461403209</v>
+        <v>0.7546914380768897</v>
       </c>
       <c r="I22">
-        <v>0.6397718491230648</v>
+        <v>1.171726776262801</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.36826440787496</v>
+        <v>7.901554588278714</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.887244487008239</v>
+        <v>0.4356359903294447</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01490755176374137</v>
+        <v>0.04431392040972071</v>
       </c>
       <c r="D23">
-        <v>0.01150944016325184</v>
+        <v>0.01284878965001823</v>
       </c>
       <c r="E23">
-        <v>0.710820729400524</v>
+        <v>2.685509206956354</v>
       </c>
       <c r="F23">
-        <v>0.8483095285648545</v>
+        <v>1.527646307879266</v>
       </c>
       <c r="G23">
-        <v>0.7048202909221288</v>
+        <v>1.47014133331956</v>
       </c>
       <c r="H23">
-        <v>0.6800267674097427</v>
+        <v>0.7279472615195459</v>
       </c>
       <c r="I23">
-        <v>0.6318489716215652</v>
+        <v>1.12412005666863</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.285400483692626</v>
+        <v>7.593942009144314</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.890692924786471</v>
+        <v>0.4435017030558939</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01297578933387911</v>
+        <v>0.03828056928752943</v>
       </c>
       <c r="D24">
-        <v>0.01122301251412949</v>
+        <v>0.01201167908040901</v>
       </c>
       <c r="E24">
-        <v>0.6090330495418215</v>
+        <v>2.230523889106081</v>
       </c>
       <c r="F24">
-        <v>0.8079858246878899</v>
+        <v>1.294154923923259</v>
       </c>
       <c r="G24">
-        <v>0.6640895546295553</v>
+        <v>1.235553405343694</v>
       </c>
       <c r="H24">
-        <v>0.6696868451048203</v>
+        <v>0.6324690409630023</v>
       </c>
       <c r="I24">
-        <v>0.602800457596004</v>
+        <v>0.9521398787085218</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.971648420922634</v>
+        <v>6.446945520459508</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9045641570818788</v>
+        <v>0.4764682359829777</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01087732962413668</v>
+        <v>0.03181267853610592</v>
       </c>
       <c r="D25">
-        <v>0.01092290800962203</v>
+        <v>0.01123762217641655</v>
       </c>
       <c r="E25">
-        <v>0.4999754519126185</v>
+        <v>1.770457829491548</v>
       </c>
       <c r="F25">
-        <v>0.7671374627383614</v>
+        <v>1.061077031913783</v>
       </c>
       <c r="G25">
-        <v>0.6226174862849803</v>
+        <v>1.002711016591022</v>
       </c>
       <c r="H25">
-        <v>0.6604410990626377</v>
+        <v>0.5395927891279797</v>
       </c>
       <c r="I25">
-        <v>0.5734768340716272</v>
+        <v>0.7809389909610758</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.633387543859669</v>
+        <v>5.23892216045374</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9212541022304634</v>
+        <v>0.5179783999514243</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02706574821678487</v>
+        <v>0.3227582849162474</v>
       </c>
       <c r="D2">
-        <v>0.01074396790147603</v>
+        <v>0.06261634447296416</v>
       </c>
       <c r="E2">
-        <v>1.449895481098622</v>
+        <v>0.1893973302768543</v>
       </c>
       <c r="F2">
-        <v>0.9017177177061058</v>
+        <v>0.4741780952621824</v>
       </c>
       <c r="G2">
-        <v>0.8443518015970994</v>
+        <v>0.3693220762639839</v>
       </c>
       <c r="H2">
-        <v>0.4779423564103098</v>
+        <v>0.0004438302209635037</v>
       </c>
       <c r="I2">
-        <v>0.664219130994681</v>
+        <v>0.002371215807214444</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3031149265017774</v>
       </c>
       <c r="K2">
-        <v>4.366498962719334</v>
+        <v>0.4913916110134551</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.007747239737057</v>
       </c>
       <c r="N2">
-        <v>0.5529462415154924</v>
+        <v>0.2204087960377663</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.020264014726251</v>
+      </c>
+      <c r="Q2">
+        <v>1.366374195585138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02385029831632579</v>
+        <v>0.2923736048124681</v>
       </c>
       <c r="D3">
-        <v>0.01044385355515232</v>
+        <v>0.05586386995703663</v>
       </c>
       <c r="E3">
-        <v>1.240684933091671</v>
+        <v>0.1702228657216551</v>
       </c>
       <c r="F3">
-        <v>0.7997210948214644</v>
+        <v>0.4425507369829091</v>
       </c>
       <c r="G3">
-        <v>0.7433882978867956</v>
+        <v>0.3465155429824662</v>
       </c>
       <c r="H3">
-        <v>0.4395368333973693</v>
+        <v>6.956621576659217E-05</v>
       </c>
       <c r="I3">
-        <v>0.589689496838254</v>
+        <v>0.001344383061645082</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2962744788258718</v>
       </c>
       <c r="K3">
-        <v>3.782501389047184</v>
+        <v>0.4632026766639683</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.622543376318845</v>
       </c>
       <c r="N3">
-        <v>0.5790869174058031</v>
+        <v>0.19702048882219</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.9889605637717409</v>
+      </c>
+      <c r="Q3">
+        <v>1.303428871755543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02187453280112805</v>
+        <v>0.2733968926522721</v>
       </c>
       <c r="D4">
-        <v>0.01027311164476785</v>
+        <v>0.05171516040124402</v>
       </c>
       <c r="E4">
-        <v>1.115274591982256</v>
+        <v>0.1583721377054736</v>
       </c>
       <c r="F4">
-        <v>0.739581691989514</v>
+        <v>0.4235313853358349</v>
       </c>
       <c r="G4">
-        <v>0.6840132758627817</v>
+        <v>0.3328251727144718</v>
       </c>
       <c r="H4">
-        <v>0.4173829443854515</v>
+        <v>4.850456503113776E-08</v>
       </c>
       <c r="I4">
-        <v>0.5458227395101645</v>
+        <v>0.000903363008796898</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.292300583672727</v>
       </c>
       <c r="K4">
-        <v>3.426536704251419</v>
+        <v>0.4460187459465743</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.385095125165861</v>
       </c>
       <c r="N4">
-        <v>0.596253424154682</v>
+        <v>0.1826744425065314</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.9704199386152084</v>
+      </c>
+      <c r="Q4">
+        <v>1.265909336238281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02106873589577418</v>
+        <v>0.2649247848228669</v>
       </c>
       <c r="D5">
-        <v>0.01020649774153704</v>
+        <v>0.05006967816921559</v>
       </c>
       <c r="E5">
-        <v>1.064813684545484</v>
+        <v>0.153383901850308</v>
       </c>
       <c r="F5">
-        <v>0.7156358051016412</v>
+        <v>0.4155261796928329</v>
       </c>
       <c r="G5">
-        <v>0.6604055196018805</v>
+        <v>0.3269651800089406</v>
       </c>
       <c r="H5">
-        <v>0.4086818654409683</v>
+        <v>1.019508505750721E-05</v>
       </c>
       <c r="I5">
-        <v>0.5283744657012903</v>
+        <v>0.0008296336670410298</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.290556027894354</v>
       </c>
       <c r="K5">
-        <v>3.282007142955763</v>
+        <v>0.438511460000079</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.287231227909217</v>
       </c>
       <c r="N5">
-        <v>0.6035173850347633</v>
+        <v>0.1769000171232662</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.9633787880932374</v>
+      </c>
+      <c r="Q5">
+        <v>1.249759619888167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02093488641150287</v>
+        <v>0.2627083199197813</v>
       </c>
       <c r="D6">
-        <v>0.01019560402156294</v>
+        <v>0.04985303249323181</v>
       </c>
       <c r="E6">
-        <v>1.056470326404906</v>
+        <v>0.1523845405383106</v>
       </c>
       <c r="F6">
-        <v>0.7116917440997526</v>
+        <v>0.4137754321559726</v>
       </c>
       <c r="G6">
-        <v>0.656519047442373</v>
+        <v>0.3255630089762818</v>
       </c>
       <c r="H6">
-        <v>0.407255907918767</v>
+        <v>1.441290738335432E-05</v>
       </c>
       <c r="I6">
-        <v>0.525501682081682</v>
+        <v>0.0009017877999220048</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2900498355751893</v>
       </c>
       <c r="K6">
-        <v>3.258036535023621</v>
+        <v>0.4366149552774203</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.26990864656193</v>
       </c>
       <c r="N6">
-        <v>0.6047394379835325</v>
+        <v>0.1760268299839751</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.9626478438187718</v>
+      </c>
+      <c r="Q6">
+        <v>1.245714386995886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02186366855969624</v>
+        <v>0.2710772186126889</v>
       </c>
       <c r="D7">
-        <v>0.01027220179445365</v>
+        <v>0.05184828230532901</v>
       </c>
       <c r="E7">
-        <v>1.114591598797546</v>
+        <v>0.1578401541790413</v>
       </c>
       <c r="F7">
-        <v>0.7392565570432055</v>
+        <v>0.4222551500547311</v>
       </c>
       <c r="G7">
-        <v>0.6836926007991622</v>
+        <v>0.3315604377870756</v>
       </c>
       <c r="H7">
-        <v>0.4172643158468503</v>
+        <v>7.84021758626352E-09</v>
       </c>
       <c r="I7">
-        <v>0.5455857553492081</v>
+        <v>0.001109773233659794</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2916766519246465</v>
       </c>
       <c r="K7">
-        <v>3.424585547468041</v>
+        <v>0.4441350259922814</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.380876127373568</v>
       </c>
       <c r="N7">
-        <v>0.5963503168058253</v>
+        <v>0.1828311658100574</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.9715042210115996</v>
+      </c>
+      <c r="Q7">
+        <v>1.261919699020254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02595718236367617</v>
+        <v>0.3094066581709853</v>
       </c>
       <c r="D8">
-        <v>0.01063739653487872</v>
+        <v>0.06049646610480153</v>
       </c>
       <c r="E8">
-        <v>1.377050616715181</v>
+        <v>0.1821829533725712</v>
       </c>
       <c r="F8">
-        <v>0.865992934582593</v>
+        <v>0.4616343975417578</v>
       </c>
       <c r="G8">
-        <v>0.8089524149396823</v>
+        <v>0.3598154599991261</v>
       </c>
       <c r="H8">
-        <v>0.4643837353875426</v>
+        <v>0.00027669359675353</v>
       </c>
       <c r="I8">
-        <v>0.6380974780483228</v>
+        <v>0.002220329878474203</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2999139296474951</v>
       </c>
       <c r="K8">
-        <v>4.164513727760379</v>
+        <v>0.4792765727151647</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.871237332906389</v>
       </c>
       <c r="N8">
-        <v>0.5617202861107486</v>
+        <v>0.212654726327095</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.010928623123377</v>
+      </c>
+      <c r="Q8">
+        <v>1.33942429011131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03398784760914708</v>
+        <v>0.3859953586227505</v>
       </c>
       <c r="D9">
-        <v>0.01148450129137402</v>
+        <v>0.07717199098095051</v>
       </c>
       <c r="E9">
-        <v>1.922115789778786</v>
+        <v>0.2301747998193591</v>
       </c>
       <c r="F9">
-        <v>1.13744734997492</v>
+        <v>0.5444250703644826</v>
       </c>
       <c r="G9">
-        <v>1.078849901399138</v>
+        <v>0.4200924875768806</v>
       </c>
       <c r="H9">
-        <v>0.5697121682802901</v>
+        <v>0.002193527867167866</v>
       </c>
       <c r="I9">
-        <v>0.8369764080811279</v>
+        <v>0.00571418058272144</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3190471435313924</v>
       </c>
       <c r="K9">
-        <v>5.642707319628414</v>
+        <v>0.5525263081693979</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.830940725077255</v>
       </c>
       <c r="N9">
-        <v>0.5032674492666303</v>
+        <v>0.270911634915791</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.091742874441067</v>
+      </c>
+      <c r="Q9">
+        <v>1.507912125585392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03991401137075457</v>
+        <v>0.4314520160504571</v>
       </c>
       <c r="D10">
-        <v>0.01222681864864583</v>
+        <v>0.09034288176429328</v>
       </c>
       <c r="E10">
-        <v>2.351155171872421</v>
+        <v>0.2556184932865975</v>
       </c>
       <c r="F10">
-        <v>1.355847232617919</v>
+        <v>0.6014011483368265</v>
       </c>
       <c r="G10">
-        <v>1.297410616717002</v>
+        <v>0.4599450188544125</v>
       </c>
       <c r="H10">
-        <v>0.6574849021101272</v>
+        <v>0.004575357043282047</v>
       </c>
       <c r="I10">
-        <v>0.997537181366269</v>
+        <v>0.009432212291807573</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3312181576963411</v>
       </c>
       <c r="K10">
-        <v>6.755544555008953</v>
+        <v>0.5984736089360894</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.515636043380596</v>
       </c>
       <c r="N10">
-        <v>0.46701485420148</v>
+        <v>0.2992821213127286</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.162061408676649</v>
+      </c>
+      <c r="Q10">
+        <v>1.618312142365227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04262188361299479</v>
+        <v>0.3806616396261688</v>
       </c>
       <c r="D11">
-        <v>0.01260206454562507</v>
+        <v>0.1040237477412873</v>
       </c>
       <c r="E11">
-        <v>2.555269380557718</v>
+        <v>0.1926622445063515</v>
       </c>
       <c r="F11">
-        <v>1.460608768405507</v>
+        <v>0.5758578227799021</v>
       </c>
       <c r="G11">
-        <v>1.402659075154389</v>
+        <v>0.4263735414578065</v>
       </c>
       <c r="H11">
-        <v>0.7003199829194102</v>
+        <v>0.02295156195421555</v>
       </c>
       <c r="I11">
-        <v>1.074699031578376</v>
+        <v>0.01080165829978963</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3110978178576147</v>
       </c>
       <c r="K11">
-        <v>7.270285371502268</v>
+        <v>0.549645207488858</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.689778098741385</v>
       </c>
       <c r="N11">
-        <v>0.4522124895028057</v>
+        <v>0.198775360774448</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1.25561948956593</v>
+      </c>
+      <c r="Q11">
+        <v>1.505171757352485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04364960682455887</v>
+        <v>0.335045044298198</v>
       </c>
       <c r="D12">
-        <v>0.01275077039848682</v>
+        <v>0.1130015266689242</v>
       </c>
       <c r="E12">
-        <v>2.634123390031931</v>
+        <v>0.1438410979209266</v>
       </c>
       <c r="F12">
-        <v>1.501181865804327</v>
+        <v>0.5440394548117169</v>
       </c>
       <c r="G12">
-        <v>1.443489105434907</v>
+        <v>0.3921130967907516</v>
       </c>
       <c r="H12">
-        <v>0.7170215205408681</v>
+        <v>0.06125538145743548</v>
       </c>
       <c r="I12">
-        <v>1.10460605494265</v>
+        <v>0.01082446295368378</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2926308973748633</v>
       </c>
       <c r="K12">
-        <v>7.466684418535749</v>
+        <v>0.5029030609092899</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.694609880886901</v>
       </c>
       <c r="N12">
-        <v>0.4468728547883174</v>
+        <v>0.1274640597445043</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1.320938442738111</v>
+      </c>
+      <c r="Q12">
+        <v>1.393924853559668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04342815536117683</v>
+        <v>0.2875619876714666</v>
       </c>
       <c r="D13">
-        <v>0.01271842816036894</v>
+        <v>0.1190317307094801</v>
       </c>
       <c r="E13">
-        <v>2.617066478300373</v>
+        <v>0.1025196288634653</v>
       </c>
       <c r="F13">
-        <v>1.492401436583663</v>
+        <v>0.5036705220316335</v>
       </c>
       <c r="G13">
-        <v>1.434649884053158</v>
+        <v>0.3534788732114578</v>
       </c>
       <c r="H13">
-        <v>0.713402065792593</v>
+        <v>0.1164385137355453</v>
       </c>
       <c r="I13">
-        <v>1.098132814464108</v>
+        <v>0.01009367173390263</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2733974130876646</v>
       </c>
       <c r="K13">
-        <v>7.424316192604294</v>
+        <v>0.4523800928404711</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.564829776128022</v>
       </c>
       <c r="N13">
-        <v>0.4480106301742666</v>
+        <v>0.0749869215508383</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>1.369117141899849</v>
+      </c>
+      <c r="Q13">
+        <v>1.271719010357742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04270638509697733</v>
+        <v>0.2537385682443016</v>
       </c>
       <c r="D14">
-        <v>0.0126141584366124</v>
+        <v>0.1219782045838542</v>
       </c>
       <c r="E14">
-        <v>2.561723730573604</v>
+        <v>0.07834216899812141</v>
       </c>
       <c r="F14">
-        <v>1.463927888094943</v>
+        <v>0.4715108962824317</v>
       </c>
       <c r="G14">
-        <v>1.405997796659562</v>
+        <v>0.3245093975149445</v>
       </c>
       <c r="H14">
-        <v>0.7016840008681982</v>
+        <v>0.1653299949727938</v>
       </c>
       <c r="I14">
-        <v>1.077145131962766</v>
+        <v>0.009343029656607271</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2595813338343618</v>
       </c>
       <c r="K14">
-        <v>7.286412031626242</v>
+        <v>0.4153708550992476</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.412612957856652</v>
       </c>
       <c r="N14">
-        <v>0.4517677288578241</v>
+        <v>0.04967642449143383</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>1.395439521526285</v>
+      </c>
+      <c r="Q14">
+        <v>1.181316824779714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04226459949470041</v>
+        <v>0.2441764409140745</v>
       </c>
       <c r="D15">
-        <v>0.01255119079721112</v>
+        <v>0.1220676976288502</v>
       </c>
       <c r="E15">
-        <v>2.52803687182984</v>
+        <v>0.07287530375545259</v>
       </c>
       <c r="F15">
-        <v>1.446608484103365</v>
+        <v>0.4615161558011351</v>
       </c>
       <c r="G15">
-        <v>1.388578903132014</v>
+        <v>0.316112281518599</v>
       </c>
       <c r="H15">
-        <v>0.6945709786718908</v>
+        <v>0.1776464869821979</v>
       </c>
       <c r="I15">
-        <v>1.064382139926138</v>
+        <v>0.009099714859749142</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.255862247071768</v>
       </c>
       <c r="K15">
-        <v>7.20214239140779</v>
+        <v>0.4048989918096026</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.346187551609319</v>
       </c>
       <c r="N15">
-        <v>0.4541043868557111</v>
+        <v>0.04499981309630385</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1.398201971603655</v>
+      </c>
+      <c r="Q15">
+        <v>1.155694901414108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03973733551284653</v>
+        <v>0.2346316275289979</v>
       </c>
       <c r="D16">
-        <v>0.01220314909817333</v>
+        <v>0.1150245370704681</v>
       </c>
       <c r="E16">
-        <v>2.338018177067326</v>
+        <v>0.07138267383095886</v>
       </c>
       <c r="F16">
-        <v>1.349119926293767</v>
+        <v>0.444851617630647</v>
       </c>
       <c r="G16">
-        <v>1.290660883618898</v>
+        <v>0.3065675600855116</v>
       </c>
       <c r="H16">
-        <v>0.6547491981051223</v>
+        <v>0.1639927087017981</v>
       </c>
       <c r="I16">
-        <v>0.9925852284514036</v>
+        <v>0.00774219461110448</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2542660467343509</v>
       </c>
       <c r="K16">
-        <v>6.72209716400954</v>
+        <v>0.3953064354886493</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.079178137202973</v>
       </c>
       <c r="N16">
-        <v>0.468018100168301</v>
+        <v>0.04507697966905866</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1.355690852799412</v>
+      </c>
+      <c r="Q16">
+        <v>1.131939434920369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03819041138039125</v>
+        <v>0.2445714042643345</v>
       </c>
       <c r="D17">
-        <v>0.01200004350808115</v>
+        <v>0.1080790048373785</v>
       </c>
       <c r="E17">
-        <v>2.223919190662627</v>
+        <v>0.08202047983928651</v>
       </c>
       <c r="F17">
-        <v>1.290782788130159</v>
+        <v>0.449083500389527</v>
       </c>
       <c r="G17">
-        <v>1.232174912365451</v>
+        <v>0.314474524059527</v>
       </c>
       <c r="H17">
-        <v>0.6311064023354618</v>
+        <v>0.1257541328128156</v>
       </c>
       <c r="I17">
-        <v>0.9496593726788376</v>
+        <v>0.007128151396835314</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2603426272281695</v>
       </c>
       <c r="K17">
-        <v>6.42995385124209</v>
+        <v>0.4072623067853982</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.95506416138096</v>
       </c>
       <c r="N17">
-        <v>0.4770017156344153</v>
+        <v>0.05658067006977063</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>1.309580043092396</v>
+      </c>
+      <c r="Q17">
+        <v>1.161319530593303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0373017548212573</v>
+        <v>0.2756701244753401</v>
       </c>
       <c r="D18">
-        <v>0.01188667309859781</v>
+        <v>0.100445711707934</v>
       </c>
       <c r="E18">
-        <v>2.159115208290416</v>
+        <v>0.1090764829770023</v>
       </c>
       <c r="F18">
-        <v>1.257729709375909</v>
+        <v>0.4727294839440503</v>
       </c>
       <c r="G18">
-        <v>1.19907428182708</v>
+        <v>0.3395722126847147</v>
       </c>
       <c r="H18">
-        <v>0.6177770676353873</v>
+        <v>0.07289770945684637</v>
       </c>
       <c r="I18">
-        <v>0.9253511601270503</v>
+        <v>0.006801452335240654</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.274276326797164</v>
       </c>
       <c r="K18">
-        <v>6.262704145332066</v>
+        <v>0.4412397087446607</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.941378424248342</v>
       </c>
       <c r="N18">
-        <v>0.4823263241952915</v>
+        <v>0.0890351940585532</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1.254997501436279</v>
+      </c>
+      <c r="Q18">
+        <v>1.243650241303527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03700104230880186</v>
+        <v>0.3213814063494738</v>
       </c>
       <c r="D19">
-        <v>0.01184884746475134</v>
+        <v>0.09339776777456166</v>
       </c>
       <c r="E19">
-        <v>2.137307377211741</v>
+        <v>0.1538782988661076</v>
       </c>
       <c r="F19">
-        <v>1.246621018311671</v>
+        <v>0.5087842764907435</v>
       </c>
       <c r="G19">
-        <v>1.187955661384848</v>
+        <v>0.3757258228441174</v>
       </c>
       <c r="H19">
-        <v>0.6133084721067803</v>
+        <v>0.02810247768423579</v>
       </c>
       <c r="I19">
-        <v>0.9171836750242335</v>
+        <v>0.007227550343431588</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2929160375037014</v>
       </c>
       <c r="K19">
-        <v>6.206203620873168</v>
+        <v>0.4892735745315733</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.011549662233676</v>
       </c>
       <c r="N19">
-        <v>0.4841555400879756</v>
+        <v>0.1511425526774346</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1.201788131350824</v>
+      </c>
+      <c r="Q19">
+        <v>1.359322491276515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03835496698506802</v>
+        <v>0.4123503061086637</v>
       </c>
       <c r="D20">
-        <v>0.01202129933439267</v>
+        <v>0.08741971255918912</v>
       </c>
       <c r="E20">
-        <v>2.235978231612364</v>
+        <v>0.2471187143156683</v>
       </c>
       <c r="F20">
-        <v>1.296940188272686</v>
+        <v>0.5823354100743074</v>
       </c>
       <c r="G20">
-        <v>1.238344129689864</v>
+        <v>0.44536402398532</v>
       </c>
       <c r="H20">
-        <v>0.6335949109600563</v>
+        <v>0.003831432815156965</v>
       </c>
       <c r="I20">
-        <v>0.9541887628173811</v>
+        <v>0.009005380750986447</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3259419525642642</v>
       </c>
       <c r="K20">
-        <v>6.46097019321661</v>
+        <v>0.5804293242693959</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.32615299432274</v>
       </c>
       <c r="N20">
-        <v>0.4760289403546167</v>
+        <v>0.2919395850708923</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1.147550705536403</v>
+      </c>
+      <c r="Q20">
+        <v>1.576240991325761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04291831877937824</v>
+        <v>0.4606849509403048</v>
       </c>
       <c r="D21">
-        <v>0.01264459479478575</v>
+        <v>0.09618492479278018</v>
       </c>
       <c r="E21">
-        <v>2.577934461150775</v>
+        <v>0.2811928330977338</v>
       </c>
       <c r="F21">
-        <v>1.472265699683817</v>
+        <v>0.6367378759631706</v>
       </c>
       <c r="G21">
-        <v>1.414385966074718</v>
+        <v>0.4865696608055146</v>
       </c>
       <c r="H21">
-        <v>0.7051122868001016</v>
+        <v>0.006016400349531215</v>
       </c>
       <c r="I21">
-        <v>1.083290243602562</v>
+        <v>0.01229072085367022</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3406529625938077</v>
       </c>
       <c r="K21">
-        <v>7.326875506369163</v>
+        <v>0.6293924560891497</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.875427470105706</v>
       </c>
       <c r="N21">
-        <v>0.4506567711402383</v>
+        <v>0.3365632053104264</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1.192175608430929</v>
+      </c>
+      <c r="Q21">
+        <v>1.694723066554218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04591453165287618</v>
+        <v>0.4908085053547779</v>
       </c>
       <c r="D22">
-        <v>0.01309122067710788</v>
+        <v>0.1021299273591154</v>
       </c>
       <c r="E22">
-        <v>2.810682017248311</v>
+        <v>0.2993317133217985</v>
       </c>
       <c r="F22">
-        <v>1.592180250036463</v>
+        <v>0.6714873136021851</v>
       </c>
       <c r="G22">
-        <v>1.535199194956817</v>
+        <v>0.5125702937692438</v>
       </c>
       <c r="H22">
-        <v>0.7546914380768897</v>
+        <v>0.007671752875946458</v>
       </c>
       <c r="I22">
-        <v>1.171726776262801</v>
+        <v>0.0144011230921377</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3498601018312399</v>
       </c>
       <c r="K22">
-        <v>7.901554588278714</v>
+        <v>0.659975317808879</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.230183037780307</v>
       </c>
       <c r="N22">
-        <v>0.4356359903294447</v>
+        <v>0.3579487023821031</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1.223767886404346</v>
+      </c>
+      <c r="Q22">
+        <v>1.769326245711909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04431392040972071</v>
+        <v>0.4774131964545631</v>
       </c>
       <c r="D23">
-        <v>0.01284878965001823</v>
+        <v>0.09876340524380112</v>
       </c>
       <c r="E23">
-        <v>2.685509206956354</v>
+        <v>0.2902142152576559</v>
       </c>
       <c r="F23">
-        <v>1.527646307879266</v>
+        <v>0.6542823390431991</v>
       </c>
       <c r="G23">
-        <v>1.47014133331956</v>
+        <v>0.5000633478320395</v>
       </c>
       <c r="H23">
-        <v>0.7279472615195459</v>
+        <v>0.006780369839004985</v>
       </c>
       <c r="I23">
-        <v>1.12412005666863</v>
+        <v>0.01300863920071116</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3456256194977243</v>
       </c>
       <c r="K23">
-        <v>7.593942009144314</v>
+        <v>0.6457578591993922</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.044463966446472</v>
       </c>
       <c r="N23">
-        <v>0.4435017030558939</v>
+        <v>0.3462367958572656</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>1.205300012848454</v>
+      </c>
+      <c r="Q23">
+        <v>1.733837617459727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03828056928752943</v>
+        <v>0.4219775467461773</v>
       </c>
       <c r="D24">
-        <v>0.01201167908040901</v>
+        <v>0.08634134745485511</v>
       </c>
       <c r="E24">
-        <v>2.230523889106081</v>
+        <v>0.2547396386555505</v>
       </c>
       <c r="F24">
-        <v>1.294154923923259</v>
+        <v>0.5881808612221917</v>
       </c>
       <c r="G24">
-        <v>1.235553405343694</v>
+        <v>0.4515035566203665</v>
       </c>
       <c r="H24">
-        <v>0.6324690409630023</v>
+        <v>0.003829016089968218</v>
       </c>
       <c r="I24">
-        <v>0.9521398787085218</v>
+        <v>0.008631288205948273</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3290923114613804</v>
       </c>
       <c r="K24">
-        <v>6.446945520459508</v>
+        <v>0.589101879298056</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.334434653893936</v>
       </c>
       <c r="N24">
-        <v>0.4764682359829777</v>
+        <v>0.3025025954282796</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1.139456365729231</v>
+      </c>
+      <c r="Q24">
+        <v>1.595851624637703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03181267853610592</v>
+        <v>0.361511466990919</v>
       </c>
       <c r="D25">
-        <v>0.01123762217641655</v>
+        <v>0.07294678540033317</v>
       </c>
       <c r="E25">
-        <v>1.770457829491548</v>
+        <v>0.2163980017608438</v>
       </c>
       <c r="F25">
-        <v>1.061077031913783</v>
+        <v>0.5194834441709375</v>
       </c>
       <c r="G25">
-        <v>1.002711016591022</v>
+        <v>0.4012956518071604</v>
       </c>
       <c r="H25">
-        <v>0.5395927891279797</v>
+        <v>0.001503604139154291</v>
       </c>
       <c r="I25">
-        <v>0.7809389909610758</v>
+        <v>0.004926796501147912</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3125663315854297</v>
       </c>
       <c r="K25">
-        <v>5.23892216045374</v>
+        <v>0.5293213068765468</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.566661736835442</v>
       </c>
       <c r="N25">
-        <v>0.5179783999514243</v>
+        <v>0.2555537103280301</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.071485573746187</v>
+      </c>
+      <c r="Q25">
+        <v>1.454325645806819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3227582849162474</v>
+        <v>0.2431109582962421</v>
       </c>
       <c r="D2">
-        <v>0.06261634447296416</v>
+        <v>0.06774425463338929</v>
       </c>
       <c r="E2">
-        <v>0.1893973302768543</v>
+        <v>0.173226167796841</v>
       </c>
       <c r="F2">
-        <v>0.4741780952621824</v>
+        <v>0.4353883901994493</v>
       </c>
       <c r="G2">
-        <v>0.3693220762639839</v>
+        <v>0.3115823201728531</v>
       </c>
       <c r="H2">
-        <v>0.0004438302209635037</v>
+        <v>0.0004616318795982455</v>
       </c>
       <c r="I2">
-        <v>0.002371215807214444</v>
+        <v>0.002566213828892216</v>
       </c>
       <c r="J2">
-        <v>0.3031149265017774</v>
+        <v>0.321272702225528</v>
       </c>
       <c r="K2">
-        <v>0.4913916110134551</v>
+        <v>0.4291509117926822</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2196110896596331</v>
       </c>
       <c r="M2">
-        <v>3.007747239737057</v>
+        <v>0.1159295324969207</v>
       </c>
       <c r="N2">
-        <v>0.2204087960377663</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.913663121099034</v>
       </c>
       <c r="P2">
-        <v>1.020264014726251</v>
+        <v>0.2309709644760858</v>
       </c>
       <c r="Q2">
-        <v>1.366374195585138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.059529805394391</v>
+      </c>
+      <c r="S2">
+        <v>1.240887357458732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2923736048124681</v>
+        <v>0.2231480288911598</v>
       </c>
       <c r="D3">
-        <v>0.05586386995703663</v>
+        <v>0.05995199997158807</v>
       </c>
       <c r="E3">
-        <v>0.1702228657216551</v>
+        <v>0.1566115856999311</v>
       </c>
       <c r="F3">
-        <v>0.4425507369829091</v>
+        <v>0.4093277290991395</v>
       </c>
       <c r="G3">
-        <v>0.3465155429824662</v>
+        <v>0.2946411135976774</v>
       </c>
       <c r="H3">
-        <v>6.956621576659217E-05</v>
+        <v>9.667451431050189E-05</v>
       </c>
       <c r="I3">
-        <v>0.001344383061645082</v>
+        <v>0.001611577308535228</v>
       </c>
       <c r="J3">
-        <v>0.2962744788258718</v>
+        <v>0.3150104897795885</v>
       </c>
       <c r="K3">
-        <v>0.4632026766639683</v>
+        <v>0.4089683622845328</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.219175483779857</v>
       </c>
       <c r="M3">
-        <v>2.622543376318845</v>
+        <v>0.1022170225378822</v>
       </c>
       <c r="N3">
-        <v>0.19702048882219</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.545882313840195</v>
       </c>
       <c r="P3">
-        <v>0.9889605637717409</v>
+        <v>0.2066122731275399</v>
       </c>
       <c r="Q3">
-        <v>1.303428871755543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.019680155165133</v>
+      </c>
+      <c r="S3">
+        <v>1.19473326352626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2733968926522721</v>
+        <v>0.2105185666275133</v>
       </c>
       <c r="D4">
-        <v>0.05171516040124402</v>
+        <v>0.05517679262366926</v>
       </c>
       <c r="E4">
-        <v>0.1583721377054736</v>
+        <v>0.1463089478244228</v>
       </c>
       <c r="F4">
-        <v>0.4235313853358349</v>
+        <v>0.39361941250597</v>
       </c>
       <c r="G4">
-        <v>0.3328251727144718</v>
+        <v>0.2845333644824635</v>
       </c>
       <c r="H4">
-        <v>4.850456503113776E-08</v>
+        <v>5.719037271090244E-06</v>
       </c>
       <c r="I4">
-        <v>0.000903363008796898</v>
+        <v>0.001177384204766874</v>
       </c>
       <c r="J4">
-        <v>0.292300583672727</v>
+        <v>0.3112290655770309</v>
       </c>
       <c r="K4">
-        <v>0.4460187459465743</v>
+        <v>0.3965732442358778</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2187785234205286</v>
       </c>
       <c r="M4">
-        <v>2.385095125165861</v>
+        <v>0.09443132278104116</v>
       </c>
       <c r="N4">
-        <v>0.1826744425065314</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.318905185051705</v>
       </c>
       <c r="P4">
-        <v>0.9704199386152084</v>
+        <v>0.1916879714236401</v>
       </c>
       <c r="Q4">
-        <v>1.265909336238281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.995966654999819</v>
+      </c>
+      <c r="S4">
+        <v>1.167189318599696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2649247848228669</v>
+        <v>0.2047182030153749</v>
       </c>
       <c r="D5">
-        <v>0.05006967816921559</v>
+        <v>0.05328084158872315</v>
       </c>
       <c r="E5">
-        <v>0.153383901850308</v>
+        <v>0.1419532135604911</v>
       </c>
       <c r="F5">
-        <v>0.4155261796928329</v>
+        <v>0.3869561152038301</v>
       </c>
       <c r="G5">
-        <v>0.3269651800089406</v>
+        <v>0.2801569461996962</v>
       </c>
       <c r="H5">
-        <v>1.019508505750721E-05</v>
+        <v>5.449299180781964E-07</v>
       </c>
       <c r="I5">
-        <v>0.0008296336670410298</v>
+        <v>0.001110025022674321</v>
       </c>
       <c r="J5">
-        <v>0.290556027894354</v>
+        <v>0.3095267030940008</v>
       </c>
       <c r="K5">
-        <v>0.438511460000079</v>
+        <v>0.3910320905891034</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.218359252165822</v>
       </c>
       <c r="M5">
-        <v>2.287231227909217</v>
+        <v>0.09127254697082066</v>
       </c>
       <c r="N5">
-        <v>0.1769000171232662</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.225276083944919</v>
       </c>
       <c r="P5">
-        <v>0.9633787880932374</v>
+        <v>0.1856838703428707</v>
       </c>
       <c r="Q5">
-        <v>1.249759619888167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9868483407726245</v>
+      </c>
+      <c r="S5">
+        <v>1.155098873334055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2627083199197813</v>
+        <v>0.2030654354908421</v>
       </c>
       <c r="D6">
-        <v>0.04985303249323181</v>
+        <v>0.05302510683303296</v>
       </c>
       <c r="E6">
-        <v>0.1523845405383106</v>
+        <v>0.1410675342343595</v>
       </c>
       <c r="F6">
-        <v>0.4137754321559726</v>
+        <v>0.3854491854357036</v>
       </c>
       <c r="G6">
-        <v>0.3255630089762818</v>
+        <v>0.2790356216162024</v>
       </c>
       <c r="H6">
-        <v>1.441290738335432E-05</v>
+        <v>1.67072552126335E-06</v>
       </c>
       <c r="I6">
-        <v>0.0009017877999220048</v>
+        <v>0.001199475504771286</v>
       </c>
       <c r="J6">
-        <v>0.2900498355751893</v>
+        <v>0.3090291290071647</v>
       </c>
       <c r="K6">
-        <v>0.4366149552774203</v>
+        <v>0.3895161201683379</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2180136304959106</v>
       </c>
       <c r="M6">
-        <v>2.26990864656193</v>
+        <v>0.09058055903096829</v>
       </c>
       <c r="N6">
-        <v>0.1760268299839751</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.208680599556175</v>
       </c>
       <c r="P6">
-        <v>0.9626478438187718</v>
+        <v>0.1847745124383309</v>
       </c>
       <c r="Q6">
-        <v>1.245714386995886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9857881602650025</v>
+      </c>
+      <c r="S6">
+        <v>1.151814562748143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2710772186126889</v>
+        <v>0.2087331765365406</v>
       </c>
       <c r="D7">
-        <v>0.05184828230532901</v>
+        <v>0.05541072301845418</v>
       </c>
       <c r="E7">
-        <v>0.1578401541790413</v>
+        <v>0.1458400342740021</v>
       </c>
       <c r="F7">
-        <v>0.4222551500547311</v>
+        <v>0.3917587901485362</v>
       </c>
       <c r="G7">
-        <v>0.3315604377870756</v>
+        <v>0.286107580551672</v>
       </c>
       <c r="H7">
-        <v>7.84021758626352E-09</v>
+        <v>5.013371229489749E-06</v>
       </c>
       <c r="I7">
-        <v>0.001109773233659794</v>
+        <v>0.001425430767415747</v>
       </c>
       <c r="J7">
-        <v>0.2916766519246465</v>
+        <v>0.3066853192092509</v>
       </c>
       <c r="K7">
-        <v>0.4441350259922814</v>
+        <v>0.39433898424533</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2177999665690145</v>
       </c>
       <c r="M7">
-        <v>2.380876127373568</v>
+        <v>0.09372615285362329</v>
       </c>
       <c r="N7">
-        <v>0.1828311658100574</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.313118637067134</v>
       </c>
       <c r="P7">
-        <v>0.9715042210115996</v>
+        <v>0.1918067569886617</v>
       </c>
       <c r="Q7">
-        <v>1.261919699020254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.997799984112973</v>
+      </c>
+      <c r="S7">
+        <v>1.16139479617982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3094066581709853</v>
+        <v>0.2343799658375474</v>
       </c>
       <c r="D8">
-        <v>0.06049646610480153</v>
+        <v>0.06560252206715944</v>
       </c>
       <c r="E8">
-        <v>0.1821829533725712</v>
+        <v>0.1670356938196633</v>
       </c>
       <c r="F8">
-        <v>0.4616343975417578</v>
+        <v>0.4226658878251612</v>
       </c>
       <c r="G8">
-        <v>0.3598154599991261</v>
+        <v>0.3133666536054491</v>
       </c>
       <c r="H8">
-        <v>0.00027669359675353</v>
+        <v>0.0003004964266331012</v>
       </c>
       <c r="I8">
-        <v>0.002220329878474203</v>
+        <v>0.00249420155219493</v>
       </c>
       <c r="J8">
-        <v>0.2999139296474951</v>
+        <v>0.3054933738006369</v>
       </c>
       <c r="K8">
-        <v>0.4792765727151647</v>
+        <v>0.4182833340247143</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2178407243441143</v>
       </c>
       <c r="M8">
-        <v>2.871237332906389</v>
+        <v>0.1097575976952534</v>
       </c>
       <c r="N8">
-        <v>0.212654726327095</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.777615519368538</v>
       </c>
       <c r="P8">
-        <v>1.010928623123377</v>
+        <v>0.222755278003568</v>
       </c>
       <c r="Q8">
-        <v>1.33942429011131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1.049809846314915</v>
+      </c>
+      <c r="S8">
+        <v>1.213155312094827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3859953586227505</v>
+        <v>0.2844463607983272</v>
       </c>
       <c r="D9">
-        <v>0.07717199098095051</v>
+        <v>0.08503375489015497</v>
       </c>
       <c r="E9">
-        <v>0.2301747998193591</v>
+        <v>0.2084978562218822</v>
       </c>
       <c r="F9">
-        <v>0.5444250703644826</v>
+        <v>0.4902256063253745</v>
       </c>
       <c r="G9">
-        <v>0.4200924875768806</v>
+        <v>0.3613621228338246</v>
       </c>
       <c r="H9">
-        <v>0.002193527867167866</v>
+        <v>0.002020154541608532</v>
       </c>
       <c r="I9">
-        <v>0.00571418058272144</v>
+        <v>0.005514715582826568</v>
       </c>
       <c r="J9">
-        <v>0.3190471435313924</v>
+        <v>0.3186465093441129</v>
       </c>
       <c r="K9">
-        <v>0.5525263081693979</v>
+        <v>0.4701381458939764</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2189797148591666</v>
       </c>
       <c r="M9">
-        <v>3.830940725077255</v>
+        <v>0.1478614730682182</v>
       </c>
       <c r="N9">
-        <v>0.270911634915791</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.690693236806794</v>
       </c>
       <c r="P9">
-        <v>1.091742874441067</v>
+        <v>0.2834825079151244</v>
       </c>
       <c r="Q9">
-        <v>1.507912125585392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.153123630922863</v>
+      </c>
+      <c r="S9">
+        <v>1.335497410033355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4314520160504571</v>
+        <v>0.3136287869815675</v>
       </c>
       <c r="D10">
-        <v>0.09034288176429328</v>
+        <v>0.1008818988194378</v>
       </c>
       <c r="E10">
-        <v>0.2556184932865975</v>
+        <v>0.2299341185775177</v>
       </c>
       <c r="F10">
-        <v>0.6014011483368265</v>
+        <v>0.5323858391138216</v>
       </c>
       <c r="G10">
-        <v>0.4599450188544125</v>
+        <v>0.4095453863935035</v>
       </c>
       <c r="H10">
-        <v>0.004575357043282047</v>
+        <v>0.004088864729792085</v>
       </c>
       <c r="I10">
-        <v>0.009432212291807573</v>
+        <v>0.008661146228165606</v>
       </c>
       <c r="J10">
-        <v>0.3312181576963411</v>
+        <v>0.3048043314122424</v>
       </c>
       <c r="K10">
-        <v>0.5984736089360894</v>
+        <v>0.4982350831213793</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2155823505783339</v>
       </c>
       <c r="M10">
-        <v>4.515636043380596</v>
+        <v>0.1749503299873609</v>
       </c>
       <c r="N10">
-        <v>0.2992821213127286</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.331200576821971</v>
       </c>
       <c r="P10">
-        <v>1.162061408676649</v>
+        <v>0.3130246827364402</v>
       </c>
       <c r="Q10">
-        <v>1.618312142365227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.244852510507059</v>
+      </c>
+      <c r="S10">
+        <v>1.401062450672867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3806616396261688</v>
+        <v>0.277017250712646</v>
       </c>
       <c r="D11">
-        <v>0.1040237477412873</v>
+        <v>0.1167584301209104</v>
       </c>
       <c r="E11">
-        <v>0.1926622445063515</v>
+        <v>0.1716156137975062</v>
       </c>
       <c r="F11">
-        <v>0.5758578227799021</v>
+        <v>0.5013270989164695</v>
       </c>
       <c r="G11">
-        <v>0.4263735414578065</v>
+        <v>0.4149418470916544</v>
       </c>
       <c r="H11">
-        <v>0.02295156195421555</v>
+        <v>0.02240339737346986</v>
       </c>
       <c r="I11">
-        <v>0.01080165829978963</v>
+        <v>0.009927288532042056</v>
       </c>
       <c r="J11">
-        <v>0.3110978178576147</v>
+        <v>0.2490335637226195</v>
       </c>
       <c r="K11">
-        <v>0.549645207488858</v>
+        <v>0.4502195581226829</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1928249793390009</v>
       </c>
       <c r="M11">
-        <v>4.689778098741385</v>
+        <v>0.162864898728273</v>
       </c>
       <c r="N11">
-        <v>0.198775360774448</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.481939969284269</v>
       </c>
       <c r="P11">
-        <v>1.25561948956593</v>
+        <v>0.2086753048152161</v>
       </c>
       <c r="Q11">
-        <v>1.505171757352485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.355130101823022</v>
+      </c>
+      <c r="S11">
+        <v>1.275563629404161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.335045044298198</v>
+        <v>0.2448520034149908</v>
       </c>
       <c r="D12">
-        <v>0.1130015266689242</v>
+        <v>0.1266424419001879</v>
       </c>
       <c r="E12">
-        <v>0.1438410979209266</v>
+        <v>0.1270739811009207</v>
       </c>
       <c r="F12">
-        <v>0.5440394548117169</v>
+        <v>0.4705055316748172</v>
       </c>
       <c r="G12">
-        <v>0.3921130967907516</v>
+        <v>0.4000260975965659</v>
       </c>
       <c r="H12">
-        <v>0.06125538145743548</v>
+        <v>0.06072460344504549</v>
       </c>
       <c r="I12">
-        <v>0.01082446295368378</v>
+        <v>0.009929582134434511</v>
       </c>
       <c r="J12">
-        <v>0.2926308973748633</v>
+        <v>0.2215997011907902</v>
       </c>
       <c r="K12">
-        <v>0.5029030609092899</v>
+        <v>0.4096687062347115</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1768310637925374</v>
       </c>
       <c r="M12">
-        <v>4.694609880886901</v>
+        <v>0.1487874093360837</v>
       </c>
       <c r="N12">
-        <v>0.1274640597445043</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.482874783010971</v>
       </c>
       <c r="P12">
-        <v>1.320938442738111</v>
+        <v>0.1342404466865901</v>
       </c>
       <c r="Q12">
-        <v>1.393924853559668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.427051184060829</v>
+      </c>
+      <c r="S12">
+        <v>1.171317271049105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2875619876714666</v>
+        <v>0.2112631023518929</v>
       </c>
       <c r="D13">
-        <v>0.1190317307094801</v>
+        <v>0.1322413468899981</v>
       </c>
       <c r="E13">
-        <v>0.1025196288634653</v>
+        <v>0.08995338719574875</v>
       </c>
       <c r="F13">
-        <v>0.5036705220316335</v>
+        <v>0.4375930313593557</v>
       </c>
       <c r="G13">
-        <v>0.3534788732114578</v>
+        <v>0.3602368501427833</v>
       </c>
       <c r="H13">
-        <v>0.1164385137355453</v>
+        <v>0.1159887960301234</v>
       </c>
       <c r="I13">
-        <v>0.01009367173390263</v>
+        <v>0.009334070129825456</v>
       </c>
       <c r="J13">
-        <v>0.2733974130876646</v>
+        <v>0.2139489851590852</v>
       </c>
       <c r="K13">
-        <v>0.4523800928404711</v>
+        <v>0.3707791670746872</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1639041505679089</v>
       </c>
       <c r="M13">
-        <v>4.564829776128022</v>
+        <v>0.1321024233919168</v>
       </c>
       <c r="N13">
-        <v>0.0749869215508383</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.36872117299373</v>
       </c>
       <c r="P13">
-        <v>1.369117141899849</v>
+        <v>0.07904026662693653</v>
       </c>
       <c r="Q13">
-        <v>1.271719010357742</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.471397467008671</v>
+      </c>
+      <c r="S13">
+        <v>1.075125433008239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2537385682443016</v>
+        <v>0.1873385605146609</v>
       </c>
       <c r="D14">
-        <v>0.1219782045838542</v>
+        <v>0.1342543576018329</v>
       </c>
       <c r="E14">
-        <v>0.07834216899812141</v>
+        <v>0.06862887641967141</v>
       </c>
       <c r="F14">
-        <v>0.4715108962824317</v>
+        <v>0.4132453444329229</v>
       </c>
       <c r="G14">
-        <v>0.3245093975149445</v>
+        <v>0.3226341041906551</v>
       </c>
       <c r="H14">
-        <v>0.1653299949727938</v>
+        <v>0.1649577264438875</v>
       </c>
       <c r="I14">
-        <v>0.009343029656607271</v>
+        <v>0.008753860397407998</v>
       </c>
       <c r="J14">
-        <v>0.2595813338343618</v>
+        <v>0.2157634191067501</v>
       </c>
       <c r="K14">
-        <v>0.4153708550992476</v>
+        <v>0.3439552053749466</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1559094406617518</v>
       </c>
       <c r="M14">
-        <v>4.412612957856652</v>
+        <v>0.1193218654647623</v>
       </c>
       <c r="N14">
-        <v>0.04967642449143383</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.23585689235</v>
       </c>
       <c r="P14">
-        <v>1.395439521526285</v>
+        <v>0.05201762719898539</v>
       </c>
       <c r="Q14">
-        <v>1.181316824779714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.490160976629014</v>
+      </c>
+      <c r="S14">
+        <v>1.010222019974805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2441764409140745</v>
+        <v>0.1805175608319161</v>
       </c>
       <c r="D15">
-        <v>0.1220676976288502</v>
+        <v>0.1338490215156156</v>
       </c>
       <c r="E15">
-        <v>0.07287530375545259</v>
+        <v>0.06388963317704821</v>
       </c>
       <c r="F15">
-        <v>0.4615161558011351</v>
+        <v>0.4063127976028937</v>
       </c>
       <c r="G15">
-        <v>0.316112281518599</v>
+        <v>0.3090285173192768</v>
       </c>
       <c r="H15">
-        <v>0.1776464869821979</v>
+        <v>0.1773067120499121</v>
       </c>
       <c r="I15">
-        <v>0.009099714859749142</v>
+        <v>0.008605040754141591</v>
       </c>
       <c r="J15">
-        <v>0.255862247071768</v>
+        <v>0.2192353310150565</v>
       </c>
       <c r="K15">
-        <v>0.4048989918096026</v>
+        <v>0.3369580802982881</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1542098530061189</v>
       </c>
       <c r="M15">
-        <v>4.346187551609319</v>
+        <v>0.1154465891547645</v>
       </c>
       <c r="N15">
-        <v>0.04499981309630385</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.177837467009397</v>
       </c>
       <c r="P15">
-        <v>1.398201971603655</v>
+        <v>0.04697189178411065</v>
       </c>
       <c r="Q15">
-        <v>1.155694901414108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.489011414715876</v>
+      </c>
+      <c r="S15">
+        <v>0.9941227607038741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2346316275289979</v>
+        <v>0.1735315616127195</v>
       </c>
       <c r="D16">
-        <v>0.1150245370704681</v>
+        <v>0.1245537525550162</v>
       </c>
       <c r="E16">
-        <v>0.07138267383095886</v>
+        <v>0.06283326938023137</v>
       </c>
       <c r="F16">
-        <v>0.444851617630647</v>
+        <v>0.3994982184653324</v>
       </c>
       <c r="G16">
-        <v>0.3065675600855116</v>
+        <v>0.2742484752510208</v>
       </c>
       <c r="H16">
-        <v>0.1639927087017981</v>
+        <v>0.1637824436198372</v>
       </c>
       <c r="I16">
-        <v>0.00774219461110448</v>
+        <v>0.007546576101608693</v>
       </c>
       <c r="J16">
-        <v>0.2542660467343509</v>
+        <v>0.2481244226074111</v>
       </c>
       <c r="K16">
-        <v>0.3953064354886493</v>
+        <v>0.335820021144098</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1578963139038336</v>
       </c>
       <c r="M16">
-        <v>4.079178137202973</v>
+        <v>0.1094335077884914</v>
       </c>
       <c r="N16">
-        <v>0.04507697966905866</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.942221237628019</v>
       </c>
       <c r="P16">
-        <v>1.355690852799412</v>
+        <v>0.04736811803583407</v>
       </c>
       <c r="Q16">
-        <v>1.131939434920369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.429036326779809</v>
+      </c>
+      <c r="S16">
+        <v>0.9985610426476086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2445714042643345</v>
+        <v>0.1804848780398629</v>
       </c>
       <c r="D17">
-        <v>0.1080790048373785</v>
+        <v>0.1166377858886847</v>
       </c>
       <c r="E17">
-        <v>0.08202047983928651</v>
+        <v>0.07236265118287832</v>
       </c>
       <c r="F17">
-        <v>0.449083500389527</v>
+        <v>0.40644795795113</v>
       </c>
       <c r="G17">
-        <v>0.314474524059527</v>
+        <v>0.2704279099962505</v>
       </c>
       <c r="H17">
-        <v>0.1257541328128156</v>
+        <v>0.1255964843987982</v>
       </c>
       <c r="I17">
-        <v>0.007128151396835314</v>
+        <v>0.007065090908781713</v>
       </c>
       <c r="J17">
-        <v>0.2603426272281695</v>
+        <v>0.2674896269641565</v>
       </c>
       <c r="K17">
-        <v>0.4072623067853982</v>
+        <v>0.348596735718651</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1650853092238727</v>
       </c>
       <c r="M17">
-        <v>3.95506416138096</v>
+        <v>0.1111404745245785</v>
       </c>
       <c r="N17">
-        <v>0.05658067006977063</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.829186294903593</v>
       </c>
       <c r="P17">
-        <v>1.309580043092396</v>
+        <v>0.06000190345501366</v>
       </c>
       <c r="Q17">
-        <v>1.161319530593303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.375500218956148</v>
+      </c>
+      <c r="S17">
+        <v>1.03441950298344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2756701244753401</v>
+        <v>0.2025985490720501</v>
       </c>
       <c r="D18">
-        <v>0.100445711707934</v>
+        <v>0.1087036617557544</v>
       </c>
       <c r="E18">
-        <v>0.1090764829770023</v>
+        <v>0.09666014103578746</v>
       </c>
       <c r="F18">
-        <v>0.4727294839440503</v>
+        <v>0.4283198286231382</v>
       </c>
       <c r="G18">
-        <v>0.3395722126847147</v>
+        <v>0.2873381442037939</v>
       </c>
       <c r="H18">
-        <v>0.07289770945684637</v>
+        <v>0.07274602191393598</v>
       </c>
       <c r="I18">
-        <v>0.006801452335240654</v>
+        <v>0.006714492737814659</v>
       </c>
       <c r="J18">
-        <v>0.274276326797164</v>
+        <v>0.2858168055284409</v>
       </c>
       <c r="K18">
-        <v>0.4412397087446607</v>
+        <v>0.3776807494446786</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.177300492919592</v>
       </c>
       <c r="M18">
-        <v>3.941378424248342</v>
+        <v>0.1205468627348054</v>
       </c>
       <c r="N18">
-        <v>0.0890351940585532</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.81454112581423</v>
       </c>
       <c r="P18">
-        <v>1.254997501436279</v>
+        <v>0.09454964015859701</v>
       </c>
       <c r="Q18">
-        <v>1.243650241303527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.31880339074273</v>
+      </c>
+      <c r="S18">
+        <v>1.109055602268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3213814063494738</v>
+        <v>0.2350433027169743</v>
       </c>
       <c r="D19">
-        <v>0.09339776777456166</v>
+        <v>0.1017672613607488</v>
       </c>
       <c r="E19">
-        <v>0.1538782988661076</v>
+        <v>0.1373323837405067</v>
       </c>
       <c r="F19">
-        <v>0.5087842764907435</v>
+        <v>0.4596607385572469</v>
       </c>
       <c r="G19">
-        <v>0.3757258228441174</v>
+        <v>0.3164908396734916</v>
       </c>
       <c r="H19">
-        <v>0.02810247768423579</v>
+        <v>0.02791494259334826</v>
       </c>
       <c r="I19">
-        <v>0.007227550343431588</v>
+        <v>0.007108397744145734</v>
       </c>
       <c r="J19">
-        <v>0.2929160375037014</v>
+        <v>0.3036226329286293</v>
       </c>
       <c r="K19">
-        <v>0.4892735745315733</v>
+        <v>0.4169208417736385</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1923308554505994</v>
       </c>
       <c r="M19">
-        <v>4.011549662233676</v>
+        <v>0.1351225867196177</v>
       </c>
       <c r="N19">
-        <v>0.1511425526774346</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.87592324366625</v>
       </c>
       <c r="P19">
-        <v>1.201788131350824</v>
+        <v>0.1595835549112792</v>
       </c>
       <c r="Q19">
-        <v>1.359322491276515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.26678267889892</v>
+      </c>
+      <c r="S19">
+        <v>1.207674555713083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4123503061086637</v>
+        <v>0.2996323779364189</v>
       </c>
       <c r="D20">
-        <v>0.08741971255918912</v>
+        <v>0.09690396288778658</v>
       </c>
       <c r="E20">
-        <v>0.2471187143156683</v>
+        <v>0.2225075261503022</v>
       </c>
       <c r="F20">
-        <v>0.5823354100743074</v>
+        <v>0.5199554043192904</v>
       </c>
       <c r="G20">
-        <v>0.44536402398532</v>
+        <v>0.3829193665681316</v>
       </c>
       <c r="H20">
-        <v>0.003831432815156965</v>
+        <v>0.003452783384157776</v>
       </c>
       <c r="I20">
-        <v>0.009005380750986447</v>
+        <v>0.008589754262525062</v>
       </c>
       <c r="J20">
-        <v>0.3259419525642642</v>
+        <v>0.3196480674558586</v>
       </c>
       <c r="K20">
-        <v>0.5804293242693959</v>
+        <v>0.487514101204134</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2152601724866301</v>
       </c>
       <c r="M20">
-        <v>4.32615299432274</v>
+        <v>0.1663521574472</v>
       </c>
       <c r="N20">
-        <v>0.2919395850708923</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.160130346441576</v>
       </c>
       <c r="P20">
-        <v>1.147550705536403</v>
+        <v>0.3055098003370773</v>
       </c>
       <c r="Q20">
-        <v>1.576240991325761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.22193715429556</v>
+      </c>
+      <c r="S20">
+        <v>1.379649498472929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4606849509403048</v>
+        <v>0.3347624398700475</v>
       </c>
       <c r="D21">
-        <v>0.09618492479278018</v>
+        <v>0.1097798180623641</v>
       </c>
       <c r="E21">
-        <v>0.2811928330977338</v>
+        <v>0.2529433787987756</v>
       </c>
       <c r="F21">
-        <v>0.6367378759631706</v>
+        <v>0.5486590589822953</v>
       </c>
       <c r="G21">
-        <v>0.4865696608055146</v>
+        <v>0.4857410906674033</v>
       </c>
       <c r="H21">
-        <v>0.006016400349531215</v>
+        <v>0.005251524875406699</v>
       </c>
       <c r="I21">
-        <v>0.01229072085367022</v>
+        <v>0.0111829036827249</v>
       </c>
       <c r="J21">
-        <v>0.3406529625938077</v>
+        <v>0.2520404028386452</v>
       </c>
       <c r="K21">
-        <v>0.6293924560891497</v>
+        <v>0.5100063160284449</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2130357007357624</v>
       </c>
       <c r="M21">
-        <v>4.875427470105706</v>
+        <v>0.1882624870675329</v>
       </c>
       <c r="N21">
-        <v>0.3365632053104264</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.638688892235905</v>
       </c>
       <c r="P21">
-        <v>1.192175608430929</v>
+        <v>0.3510602334333157</v>
       </c>
       <c r="Q21">
-        <v>1.694723066554218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.299190589697488</v>
+      </c>
+      <c r="S21">
+        <v>1.418125202908953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4908085053547779</v>
+        <v>0.3572011696311819</v>
       </c>
       <c r="D22">
-        <v>0.1021299273591154</v>
+        <v>0.1186244411993442</v>
       </c>
       <c r="E22">
-        <v>0.2993317133217985</v>
+        <v>0.2690858774598226</v>
       </c>
       <c r="F22">
-        <v>0.6714873136021851</v>
+        <v>0.5655695511491743</v>
       </c>
       <c r="G22">
-        <v>0.5125702937692438</v>
+        <v>0.5615148236609144</v>
       </c>
       <c r="H22">
-        <v>0.007671752875946458</v>
+        <v>0.00660793577837876</v>
       </c>
       <c r="I22">
-        <v>0.0144011230921377</v>
+        <v>0.01270402350966293</v>
       </c>
       <c r="J22">
-        <v>0.3498601018312399</v>
+        <v>0.2126080847076111</v>
       </c>
       <c r="K22">
-        <v>0.659975317808879</v>
+        <v>0.5226725779613446</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2108630107823899</v>
       </c>
       <c r="M22">
-        <v>5.230183037780307</v>
+        <v>0.2022060208268144</v>
       </c>
       <c r="N22">
-        <v>0.3579487023821031</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4.944195515515787</v>
       </c>
       <c r="P22">
-        <v>1.223767886404346</v>
+        <v>0.3727423847360427</v>
       </c>
       <c r="Q22">
-        <v>1.769326245711909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.35382026268995</v>
+      </c>
+      <c r="S22">
+        <v>1.43738807217818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4774131964545631</v>
+        <v>0.3469489322996964</v>
       </c>
       <c r="D23">
-        <v>0.09876340524380112</v>
+        <v>0.1134036740022282</v>
       </c>
       <c r="E23">
-        <v>0.2902142152576559</v>
+        <v>0.260903722313266</v>
       </c>
       <c r="F23">
-        <v>0.6542823390431991</v>
+        <v>0.559567065298495</v>
       </c>
       <c r="G23">
-        <v>0.5000633478320395</v>
+        <v>0.5135691823624882</v>
       </c>
       <c r="H23">
-        <v>0.006780369839004985</v>
+        <v>0.005886662728802838</v>
       </c>
       <c r="I23">
-        <v>0.01300863920071116</v>
+        <v>0.01157869099387376</v>
       </c>
       <c r="J23">
-        <v>0.3456256194977243</v>
+        <v>0.2401180892914923</v>
       </c>
       <c r="K23">
-        <v>0.6457578591993922</v>
+        <v>0.5191622153043696</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2131367084669655</v>
       </c>
       <c r="M23">
-        <v>5.044463966446472</v>
+        <v>0.1960697841699144</v>
       </c>
       <c r="N23">
-        <v>0.3462367958572656</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.789443449700059</v>
       </c>
       <c r="P23">
-        <v>1.205300012848454</v>
+        <v>0.3609659915135808</v>
       </c>
       <c r="Q23">
-        <v>1.733837617459727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.320662925350305</v>
+      </c>
+      <c r="S23">
+        <v>1.436558559286794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4219775467461773</v>
+        <v>0.3069421861594606</v>
       </c>
       <c r="D24">
-        <v>0.08634134745485511</v>
+        <v>0.0957807740733827</v>
       </c>
       <c r="E24">
-        <v>0.2547396386555505</v>
+        <v>0.2295626382297087</v>
       </c>
       <c r="F24">
-        <v>0.5881808612221917</v>
+        <v>0.5252584615454552</v>
       </c>
       <c r="G24">
-        <v>0.4515035566203665</v>
+        <v>0.3877587112004051</v>
       </c>
       <c r="H24">
-        <v>0.003829016089968218</v>
+        <v>0.003441522249009177</v>
       </c>
       <c r="I24">
-        <v>0.008631288205948273</v>
+        <v>0.00810537767677566</v>
       </c>
       <c r="J24">
-        <v>0.3290923114613804</v>
+        <v>0.3230880599786303</v>
       </c>
       <c r="K24">
-        <v>0.589101879298056</v>
+        <v>0.4949238765188042</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.21812808023504</v>
       </c>
       <c r="M24">
-        <v>4.334434653893936</v>
+        <v>0.1690724727836468</v>
       </c>
       <c r="N24">
-        <v>0.3025025954282796</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.16773633037019</v>
       </c>
       <c r="P24">
-        <v>1.139456365729231</v>
+        <v>0.3164249610218519</v>
       </c>
       <c r="Q24">
-        <v>1.595851624637703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.213557664037936</v>
+      </c>
+      <c r="S24">
+        <v>1.397090797605699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.361511466990919</v>
+        <v>0.2676728500074148</v>
       </c>
       <c r="D25">
-        <v>0.07294678540033317</v>
+        <v>0.07992312867956741</v>
       </c>
       <c r="E25">
-        <v>0.2163980017608438</v>
+        <v>0.1965210545551415</v>
       </c>
       <c r="F25">
-        <v>0.5194834441709375</v>
+        <v>0.470604133688127</v>
       </c>
       <c r="G25">
-        <v>0.4012956518071604</v>
+        <v>0.3421172024243191</v>
       </c>
       <c r="H25">
-        <v>0.001503604139154291</v>
+        <v>0.001414981207531252</v>
       </c>
       <c r="I25">
-        <v>0.004926796501147912</v>
+        <v>0.004987385217251727</v>
       </c>
       <c r="J25">
-        <v>0.3125663315854297</v>
+        <v>0.3194428198232941</v>
       </c>
       <c r="K25">
-        <v>0.5293213068765468</v>
+        <v>0.4539437192284055</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2179437399120552</v>
       </c>
       <c r="M25">
-        <v>3.566661736835442</v>
+        <v>0.1362099175474398</v>
       </c>
       <c r="N25">
-        <v>0.2555537103280301</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.441897652629962</v>
       </c>
       <c r="P25">
-        <v>1.071485573746187</v>
+        <v>0.2675102930839159</v>
       </c>
       <c r="Q25">
-        <v>1.454325645806819</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.125699492509312</v>
+      </c>
+      <c r="S25">
+        <v>1.29831127558063</v>
       </c>
     </row>
   </sheetData>
